--- a/Document/Inout_Assy.xlsx
+++ b/Document/Inout_Assy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="15264" activeTab="6"/>
+    <workbookView windowWidth="29868" windowHeight="15264" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Cụm Băng Tải" sheetId="3" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="Cụm Out" sheetId="7" r:id="rId5"/>
     <sheet name="List_IP" sheetId="8" r:id="rId6"/>
     <sheet name="Gói Tin" sheetId="9" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="459">
   <si>
     <t>STT</t>
   </si>
@@ -1113,7 +1114,7 @@
     <t>Gói tin Order 1</t>
   </si>
   <si>
-    <t>Mã Order</t>
+    <t>V_FrameOut</t>
   </si>
   <si>
     <t>D500-D509</t>
@@ -1146,12 +1147,6 @@
     <t>NG/OK(1/2)</t>
   </si>
   <si>
-    <t>Mã Frame 2</t>
-  </si>
-  <si>
-    <t>D1030-D1049</t>
-  </si>
-  <si>
     <t>Vuale 1</t>
   </si>
   <si>
@@ -1161,12 +1156,6 @@
     <t>Height</t>
   </si>
   <si>
-    <t>Mã Frame 3</t>
-  </si>
-  <si>
-    <t>D1050-D1069</t>
-  </si>
-  <si>
     <t>Value 2</t>
   </si>
   <si>
@@ -1176,12 +1165,6 @@
     <t>Detph Drill</t>
   </si>
   <si>
-    <t>Mã Frame 4</t>
-  </si>
-  <si>
-    <t>D1070-D1089</t>
-  </si>
-  <si>
     <t>Vuale 3</t>
   </si>
   <si>
@@ -1191,45 +1174,21 @@
     <t>Erorr Latch</t>
   </si>
   <si>
-    <t>Mã Frame 5</t>
-  </si>
-  <si>
-    <t>D1090-D1109</t>
-  </si>
-  <si>
     <t>Value 4</t>
   </si>
   <si>
     <t>D537-D538</t>
   </si>
   <si>
-    <t>Value Frame 1</t>
-  </si>
-  <si>
-    <t>D1110-D1119</t>
-  </si>
-  <si>
     <t>Value 5</t>
   </si>
   <si>
     <t>D539-D540</t>
   </si>
   <si>
-    <t>Value Frame 2</t>
-  </si>
-  <si>
-    <t>D1120-D1129</t>
-  </si>
-  <si>
     <t>Gói tin máy</t>
   </si>
   <si>
-    <t>Value Frame 3</t>
-  </si>
-  <si>
-    <t>D1130-D1139</t>
-  </si>
-  <si>
     <t>Status_Machine</t>
   </si>
   <si>
@@ -1239,66 +1198,24 @@
     <t>D541.0 Máy chạy không có hàng</t>
   </si>
   <si>
-    <t>Value Frame 4</t>
-  </si>
-  <si>
-    <t>D1140-D1149</t>
-  </si>
-  <si>
     <t>D541.1 Máy chạy có hàng</t>
   </si>
   <si>
-    <t>Value Frame 5</t>
-  </si>
-  <si>
-    <t>D1150-D1159</t>
-  </si>
-  <si>
     <t>D541.2 Máy chạy nhưng có cảnh báo</t>
   </si>
   <si>
-    <t>STT_Order</t>
-  </si>
-  <si>
-    <t>D1160</t>
-  </si>
-  <si>
     <t>D541.3 Máy dừng</t>
   </si>
   <si>
-    <t>STT_Frame</t>
-  </si>
-  <si>
-    <t>D1161</t>
-  </si>
-  <si>
     <t>D541.4 Máy Lỗi</t>
   </si>
   <si>
-    <t>Số lượng Frame</t>
-  </si>
-  <si>
-    <t>D1162</t>
-  </si>
-  <si>
     <t>Check connect</t>
   </si>
   <si>
     <t>D541.5 Nhấp Clock 10Hz</t>
   </si>
   <si>
-    <t>Status Frame</t>
-  </si>
-  <si>
-    <t>D1163</t>
-  </si>
-  <si>
-    <t>Status Oder</t>
-  </si>
-  <si>
-    <t>D1164</t>
-  </si>
-  <si>
     <t>Status_Tranfer1</t>
   </si>
   <si>
@@ -1311,90 +1228,63 @@
     <t>Trạm Hiện Tại</t>
   </si>
   <si>
-    <t>Gói tin Order 2</t>
-  </si>
-  <si>
     <t>D542.1 Nhận hàng xong</t>
   </si>
   <si>
     <t>Khi có tín hiệu này thì Srv mới gửi thông số chạy</t>
   </si>
   <si>
-    <t>D1200-D1209</t>
-  </si>
-  <si>
     <t>Status_Tranfer2</t>
   </si>
   <si>
     <t>D542.2 Sẵn sàng nhận hàng</t>
   </si>
   <si>
-    <t>D1210-D1229</t>
-  </si>
-  <si>
     <t>D542.3 Nhận hàng xong</t>
   </si>
   <si>
-    <t>D1230-D1249</t>
-  </si>
-  <si>
     <t>D543</t>
   </si>
   <si>
     <t>D543.0 Yêu cầu nhận hàng</t>
   </si>
   <si>
-    <t>D1250-D1269</t>
-  </si>
-  <si>
     <t>D543.1 Yêu cầu nhận hàng</t>
   </si>
   <si>
-    <t>D1270-D1289</t>
+    <t>Assy Status</t>
+  </si>
+  <si>
+    <t>Cụm Output</t>
   </si>
   <si>
     <t>D545</t>
   </si>
   <si>
-    <t>D1290-D1309</t>
-  </si>
-  <si>
-    <t>D546</t>
-  </si>
-  <si>
-    <t>D1310-D1319</t>
-  </si>
-  <si>
-    <t>SL_Frame</t>
-  </si>
-  <si>
-    <t>D547</t>
+    <t>DoneFrame</t>
+  </si>
+  <si>
+    <t>D546.0 (Giữ 10s)</t>
+  </si>
+  <si>
+    <t>Thả vào tray xong</t>
   </si>
   <si>
     <t>Master - Slave</t>
   </si>
   <si>
-    <t>D1320-D1329</t>
+    <t>V_Frame</t>
   </si>
   <si>
     <t>D550-D559</t>
   </si>
   <si>
-    <t>D1330-D1339</t>
+    <t>Value1,2,3,4,5</t>
   </si>
   <si>
     <t>D560-D579</t>
   </si>
   <si>
-    <t>D1340-D1349</t>
-  </si>
-  <si>
-    <t>D1350-D1359</t>
-  </si>
-  <si>
-    <t>D1360</t>
-  </si>
-  <si>
     <t>D581</t>
   </si>
   <si>
@@ -1404,33 +1294,15 @@
     <t>Trạm sau</t>
   </si>
   <si>
-    <t>D1361</t>
-  </si>
-  <si>
     <t>D581.1 Nhận hàng xong</t>
   </si>
   <si>
-    <t>D1362</t>
-  </si>
-  <si>
-    <t>D1363</t>
-  </si>
-  <si>
-    <t>D1364</t>
-  </si>
-  <si>
     <t>D581.2 Sẵn sàng nhận hàng</t>
   </si>
   <si>
-    <t>Gói tin Order 3</t>
-  </si>
-  <si>
     <t>D581.3 Nhận hàng xong</t>
   </si>
   <si>
-    <t>D1400-D1409</t>
-  </si>
-  <si>
     <t>D582</t>
   </si>
   <si>
@@ -1440,31 +1312,25 @@
     <t>Trạm Trước</t>
   </si>
   <si>
-    <t>D1410-D1429</t>
-  </si>
-  <si>
     <t>D582.1 Yêu cầu nhận hàng</t>
   </si>
   <si>
-    <t>D1430-D1449</t>
-  </si>
-  <si>
-    <t>D585</t>
-  </si>
-  <si>
-    <t>D1450-D1469</t>
-  </si>
-  <si>
-    <t>D586</t>
-  </si>
-  <si>
-    <t>D1470-D1489</t>
-  </si>
-  <si>
-    <t>D587</t>
-  </si>
-  <si>
-    <t>D1490-D1509</t>
+    <t>D582.2 Codition</t>
+  </si>
+  <si>
+    <t>Done Order</t>
+  </si>
+  <si>
+    <t>D590</t>
+  </si>
+  <si>
+    <t>D590.0 (Server giữ 10s)</t>
+  </si>
+  <si>
+    <t>Traffic</t>
+  </si>
+  <si>
+    <t>D591</t>
   </si>
   <si>
     <t>DB Master</t>
@@ -1476,39 +1342,18 @@
     <t>500-599</t>
   </si>
   <si>
-    <t>D1510-D1519</t>
-  </si>
-  <si>
     <t>600-699</t>
   </si>
   <si>
-    <t>D1520-D1529</t>
-  </si>
-  <si>
     <t>700-799</t>
   </si>
   <si>
-    <t>D1530-D1539</t>
-  </si>
-  <si>
     <t>800-899</t>
   </si>
   <si>
-    <t>D1540-D1549</t>
-  </si>
-  <si>
     <t>900-999</t>
   </si>
   <si>
-    <t>D1550-D1559</t>
-  </si>
-  <si>
-    <t>D1560</t>
-  </si>
-  <si>
-    <t>D1561</t>
-  </si>
-  <si>
     <t>COM AGV (Cụm Output)</t>
   </si>
   <si>
@@ -1518,51 +1363,21 @@
     <t>Traffic Status (AGV gửi D601)</t>
   </si>
   <si>
-    <t>D1562</t>
-  </si>
-  <si>
     <t>1: Call AGV</t>
   </si>
   <si>
     <t>1: AGV đang lấy hàng</t>
   </si>
   <si>
-    <t>Status Order</t>
-  </si>
-  <si>
-    <t>D1563</t>
-  </si>
-  <si>
     <t>2: Ready Rev</t>
   </si>
   <si>
     <t>2: AGV Req Rev</t>
   </si>
   <si>
-    <t>Gói tin Order 4</t>
-  </si>
-  <si>
     <t>3: AGV Send Done</t>
   </si>
   <si>
-    <t>D1600-D1609</t>
-  </si>
-  <si>
-    <t>D1610-D1629</t>
-  </si>
-  <si>
-    <t>D1630-D1649</t>
-  </si>
-  <si>
-    <t>D1650-D1669</t>
-  </si>
-  <si>
-    <t>D1670-D1689</t>
-  </si>
-  <si>
-    <t>D1690-D1709</t>
-  </si>
-  <si>
     <t>COM Conveyer (Cụm Output)</t>
   </si>
   <si>
@@ -1572,91 +1387,19 @@
     <t>Conveyer Status (AGV gửi D603)</t>
   </si>
   <si>
-    <t>D1710-D1719</t>
-  </si>
-  <si>
     <t>1: Req Conveyer Rev</t>
   </si>
   <si>
     <t>1: Conveyer Ready</t>
   </si>
   <si>
-    <t>D1720-D1729</t>
-  </si>
-  <si>
     <t>2: Codition Conveyer</t>
   </si>
   <si>
     <t>2: Conveyer Rev Done</t>
   </si>
   <si>
-    <t>D1730-D1739</t>
-  </si>
-  <si>
-    <t>D1740-D1749</t>
-  </si>
-  <si>
-    <t>D1750-D1759</t>
-  </si>
-  <si>
-    <t>D1760</t>
-  </si>
-  <si>
-    <t>D1761</t>
-  </si>
-  <si>
-    <t>D1762</t>
-  </si>
-  <si>
-    <t>D1763</t>
-  </si>
-  <si>
-    <t>Gói tin Order 5</t>
-  </si>
-  <si>
-    <t>D1800-D1809</t>
-  </si>
-  <si>
-    <t>D1810-D1829</t>
-  </si>
-  <si>
-    <t>D1830-D1849</t>
-  </si>
-  <si>
-    <t>D1850-D1869</t>
-  </si>
-  <si>
-    <t>D1870-D1889</t>
-  </si>
-  <si>
-    <t>D1890-D1909</t>
-  </si>
-  <si>
-    <t>D1910-D1919</t>
-  </si>
-  <si>
-    <t>D1920-D1929</t>
-  </si>
-  <si>
-    <t>D1930-D1939</t>
-  </si>
-  <si>
-    <t>D1940-D1949</t>
-  </si>
-  <si>
-    <t>D1950-D1959</t>
-  </si>
-  <si>
-    <t>D1960</t>
-  </si>
-  <si>
-    <t>D1961</t>
-  </si>
-  <si>
-    <t>D1962</t>
-  </si>
-  <si>
-    <t>D1963</t>
+    <t>DataBT</t>
   </si>
 </sst>
 </file>
@@ -8629,10 +8372,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M83"/>
+  <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E49" workbookViewId="0">
-      <selection activeCell="K63" sqref="K63"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -8640,7 +8383,7 @@
     <col min="1" max="1" width="19.4259259259259" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="31.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="37.8611111111111" customWidth="1"/>
+    <col min="4" max="4" width="39.9074074074074" customWidth="1"/>
     <col min="5" max="5" width="39.8055555555556" customWidth="1"/>
     <col min="6" max="6" width="52.5555555555556" customWidth="1"/>
     <col min="7" max="7" width="15.1388888888889" customWidth="1"/>
@@ -8742,129 +8485,105 @@
       <c r="F4" s="4"/>
       <c r="G4" s="5"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>375</v>
-      </c>
+      <c r="J4" s="18"/>
+      <c r="K4" s="19"/>
       <c r="L4" s="18"/>
     </row>
     <row r="5" ht="16.8" spans="1:12">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>376</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>378</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="5"/>
       <c r="I5" s="15"/>
-      <c r="J5" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>380</v>
-      </c>
+      <c r="J5" s="18"/>
+      <c r="K5" s="19"/>
       <c r="L5" s="18"/>
     </row>
     <row r="6" ht="16.8" spans="1:12">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="5"/>
       <c r="I6" s="15"/>
-      <c r="J6" s="18" t="s">
-        <v>384</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>385</v>
-      </c>
+      <c r="J6" s="18"/>
+      <c r="K6" s="19"/>
       <c r="L6" s="18"/>
     </row>
     <row r="7" ht="16.8" spans="1:12">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="5"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="18" t="s">
-        <v>389</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>390</v>
-      </c>
+      <c r="J7" s="18"/>
+      <c r="K7" s="19"/>
       <c r="L7" s="18"/>
     </row>
     <row r="8" ht="16.8" spans="1:12">
       <c r="A8" s="1"/>
       <c r="B8" s="4" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="18" t="s">
-        <v>393</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>394</v>
-      </c>
+      <c r="J8" s="18"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="18"/>
     </row>
     <row r="9" ht="16.8" spans="1:12">
       <c r="A9" s="1"/>
       <c r="B9" s="4" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="5"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>398</v>
-      </c>
+      <c r="J9" s="18"/>
+      <c r="K9" s="19"/>
       <c r="L9" s="18"/>
     </row>
     <row r="10" ht="16.8" spans="1:12">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>358</v>
@@ -8876,35 +8595,27 @@
       <c r="F10" s="4"/>
       <c r="G10" s="5"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="18" t="s">
-        <v>400</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>401</v>
-      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="19"/>
       <c r="L10" s="18"/>
     </row>
     <row r="11" ht="16.8" spans="1:12">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="5"/>
       <c r="I11" s="18"/>
-      <c r="J11" s="18" t="s">
-        <v>405</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>406</v>
-      </c>
+      <c r="J11" s="18"/>
+      <c r="K11" s="19"/>
       <c r="L11" s="18"/>
     </row>
     <row r="12" ht="16.8" spans="1:12">
@@ -8912,18 +8623,14 @@
       <c r="B12" s="4"/>
       <c r="C12" s="6"/>
       <c r="D12" s="4" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="5"/>
       <c r="I12" s="18"/>
-      <c r="J12" s="18" t="s">
-        <v>408</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>409</v>
-      </c>
+      <c r="J12" s="18"/>
+      <c r="K12" s="19"/>
       <c r="L12" s="18"/>
     </row>
     <row r="13" ht="16.8" spans="1:12">
@@ -8931,18 +8638,14 @@
       <c r="B13" s="4"/>
       <c r="C13" s="6"/>
       <c r="D13" s="4" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="5"/>
       <c r="I13" s="18"/>
-      <c r="J13" s="18" t="s">
-        <v>411</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>412</v>
-      </c>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
       <c r="L13" s="18"/>
     </row>
     <row r="14" ht="16.8" spans="1:12">
@@ -8950,18 +8653,14 @@
       <c r="B14" s="4"/>
       <c r="C14" s="6"/>
       <c r="D14" s="4" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="5"/>
       <c r="I14" s="18"/>
-      <c r="J14" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>415</v>
-      </c>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
       <c r="L14" s="18"/>
     </row>
     <row r="15" ht="16.8" spans="1:12">
@@ -8969,39 +8668,31 @@
       <c r="B15" s="4"/>
       <c r="C15" s="6"/>
       <c r="D15" s="4" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="5"/>
       <c r="I15" s="18"/>
-      <c r="J15" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>418</v>
-      </c>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
       <c r="L15" s="18"/>
     </row>
     <row r="16" ht="16.8" spans="1:12">
       <c r="A16" s="1"/>
       <c r="B16" s="4" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="4" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="5"/>
       <c r="I16" s="18"/>
-      <c r="J16" s="18" t="s">
-        <v>421</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>422</v>
-      </c>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
       <c r="L16" s="18"/>
     </row>
     <row r="17" ht="16.8" spans="1:12">
@@ -9013,37 +8704,29 @@
       <c r="F17" s="4"/>
       <c r="G17" s="5"/>
       <c r="I17" s="18"/>
-      <c r="J17" s="18" t="s">
-        <v>423</v>
-      </c>
-      <c r="K17" s="18" t="s">
-        <v>424</v>
-      </c>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
       <c r="L17" s="18"/>
     </row>
     <row r="18" ht="16.8" spans="1:12">
       <c r="A18" s="1"/>
       <c r="B18" s="4" t="s">
-        <v>425</v>
+        <v>397</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>426</v>
+        <v>398</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>427</v>
+        <v>399</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>428</v>
+        <v>400</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="5"/>
       <c r="I18" s="18"/>
-      <c r="J18" s="16" t="s">
-        <v>429</v>
-      </c>
-      <c r="K18" s="17" t="s">
-        <v>358</v>
-      </c>
+      <c r="J18" s="16"/>
+      <c r="K18" s="17"/>
       <c r="L18" s="18"/>
     </row>
     <row r="19" ht="16.8" spans="1:12">
@@ -9051,45 +8734,37 @@
       <c r="B19" s="4"/>
       <c r="C19" s="6"/>
       <c r="D19" s="4" t="s">
-        <v>430</v>
+        <v>401</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>428</v>
+        <v>400</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="G19" s="5"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="K19" s="19" t="s">
-        <v>432</v>
-      </c>
+      <c r="J19" s="18"/>
+      <c r="K19" s="19"/>
       <c r="L19" s="18"/>
     </row>
     <row r="20" ht="16.8" spans="1:12">
       <c r="A20" s="1"/>
       <c r="B20" s="4" t="s">
-        <v>433</v>
+        <v>403</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="4" t="s">
-        <v>434</v>
+        <v>404</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>428</v>
+        <v>400</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="5"/>
       <c r="I20" s="18"/>
-      <c r="J20" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>435</v>
-      </c>
+      <c r="J20" s="18"/>
+      <c r="K20" s="19"/>
       <c r="L20" s="18"/>
     </row>
     <row r="21" ht="16.8" spans="1:12">
@@ -9097,124 +8772,104 @@
       <c r="B21" s="4"/>
       <c r="C21" s="6"/>
       <c r="D21" s="4" t="s">
-        <v>436</v>
+        <v>405</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>428</v>
+        <v>400</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="G21" s="5"/>
       <c r="I21" s="18"/>
-      <c r="J21" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="K21" s="19" t="s">
-        <v>437</v>
-      </c>
+      <c r="J21" s="18"/>
+      <c r="K21" s="19"/>
       <c r="L21" s="18"/>
     </row>
-    <row r="22" ht="16.8" spans="1:12">
+    <row r="22" ht="43" customHeight="1" spans="1:12">
       <c r="A22" s="1"/>
       <c r="B22" s="4" t="s">
-        <v>425</v>
+        <v>397</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>438</v>
+        <v>406</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>428</v>
+        <v>400</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="5"/>
       <c r="I22" s="18"/>
-      <c r="J22" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="K22" s="19" t="s">
-        <v>440</v>
-      </c>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19"/>
       <c r="L22" s="18"/>
     </row>
     <row r="23" ht="16.8" spans="1:12">
       <c r="A23" s="1"/>
       <c r="B23" s="4" t="s">
-        <v>433</v>
+        <v>403</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="4" t="s">
-        <v>441</v>
+        <v>408</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>428</v>
+        <v>400</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="5"/>
       <c r="I23" s="18"/>
-      <c r="J23" s="18" t="s">
-        <v>384</v>
-      </c>
-      <c r="K23" s="19" t="s">
-        <v>442</v>
-      </c>
+      <c r="J23" s="18"/>
+      <c r="K23" s="19"/>
       <c r="L23" s="18"/>
     </row>
     <row r="24" ht="16.8" spans="1:12">
       <c r="A24" s="4"/>
-      <c r="B24" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>443</v>
-      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="5"/>
       <c r="I24" s="18"/>
-      <c r="J24" s="18" t="s">
-        <v>389</v>
-      </c>
-      <c r="K24" s="19" t="s">
-        <v>444</v>
-      </c>
+      <c r="J24" s="18"/>
+      <c r="K24" s="19"/>
       <c r="L24" s="18"/>
     </row>
     <row r="25" ht="16.8" spans="1:12">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>410</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>411</v>
+      </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="5"/>
       <c r="I25" s="18"/>
-      <c r="J25" s="18" t="s">
-        <v>393</v>
-      </c>
-      <c r="K25" s="19" t="s">
-        <v>446</v>
-      </c>
+      <c r="J25" s="18"/>
+      <c r="K25" s="19"/>
       <c r="L25" s="18"/>
     </row>
     <row r="26" ht="16.8" spans="1:12">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+        <v>412</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>414</v>
+      </c>
       <c r="F26" s="8"/>
       <c r="G26" s="5"/>
       <c r="I26" s="18"/>
@@ -9223,177 +8878,147 @@
       <c r="L26" s="18"/>
     </row>
     <row r="27" ht="16.8" spans="1:12">
-      <c r="A27" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
       <c r="G27" s="5"/>
       <c r="I27" s="18"/>
-      <c r="J27" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="K27" s="19" t="s">
-        <v>450</v>
-      </c>
+      <c r="J27" s="18"/>
+      <c r="K27" s="19"/>
       <c r="L27" s="18"/>
     </row>
     <row r="28" ht="16.8" spans="1:12">
-      <c r="A28" s="9"/>
-      <c r="B28" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="D28" s="12"/>
+      <c r="A28" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>359</v>
+      </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="5"/>
       <c r="I28" s="18"/>
-      <c r="J28" s="18" t="s">
-        <v>400</v>
-      </c>
-      <c r="K28" s="19" t="s">
-        <v>452</v>
-      </c>
+      <c r="J28" s="18"/>
+      <c r="K28" s="19"/>
       <c r="L28" s="18"/>
     </row>
     <row r="29" ht="16.8" spans="1:12">
       <c r="A29" s="9"/>
       <c r="B29" s="12" t="s">
-        <v>367</v>
+        <v>416</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="D29" s="12"/>
+        <v>417</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>418</v>
+      </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="5"/>
       <c r="I29" s="18"/>
-      <c r="J29" s="18" t="s">
-        <v>405</v>
-      </c>
-      <c r="K29" s="19" t="s">
-        <v>454</v>
-      </c>
+      <c r="J29" s="18"/>
+      <c r="K29" s="19"/>
       <c r="L29" s="18"/>
     </row>
     <row r="30" ht="16.8" spans="1:12">
       <c r="A30" s="9"/>
       <c r="B30" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="C30" s="13">
-        <v>580</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>373</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="5"/>
       <c r="I30" s="18"/>
-      <c r="J30" s="18" t="s">
-        <v>408</v>
-      </c>
-      <c r="K30" s="19" t="s">
-        <v>455</v>
-      </c>
+      <c r="J30" s="18"/>
+      <c r="K30" s="19"/>
       <c r="L30" s="18"/>
     </row>
     <row r="31" ht="16.8" spans="1:12">
       <c r="A31" s="9"/>
-      <c r="B31" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="D31" s="11"/>
+      <c r="B31" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="C31" s="13">
+        <v>580</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>373</v>
+      </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="5"/>
       <c r="I31" s="18"/>
-      <c r="J31" s="18" t="s">
-        <v>411</v>
-      </c>
-      <c r="K31" s="18" t="s">
-        <v>456</v>
-      </c>
+      <c r="J31" s="18"/>
+      <c r="K31" s="19"/>
       <c r="L31" s="18"/>
     </row>
     <row r="32" ht="16.8" spans="1:12">
       <c r="A32" s="9"/>
-      <c r="B32" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>457</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>459</v>
-      </c>
+      <c r="B32" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="G32" s="5"/>
       <c r="I32" s="18"/>
-      <c r="J32" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="K32" s="18" t="s">
-        <v>460</v>
-      </c>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
       <c r="L32" s="18"/>
     </row>
     <row r="33" ht="16.8" spans="1:12">
       <c r="A33" s="9"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
+      <c r="B33" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>420</v>
+      </c>
       <c r="D33" s="12" t="s">
-        <v>461</v>
+        <v>421</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>459</v>
+        <v>422</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="5"/>
       <c r="I33" s="18"/>
-      <c r="J33" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="K33" s="18" t="s">
-        <v>462</v>
-      </c>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
       <c r="L33" s="18"/>
     </row>
     <row r="34" ht="16.8" spans="1:12">
       <c r="A34" s="9"/>
       <c r="B34" s="12"/>
       <c r="C34" s="13"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
+      <c r="D34" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>422</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="5"/>
       <c r="I34" s="18"/>
-      <c r="J34" s="18" t="s">
-        <v>421</v>
-      </c>
-      <c r="K34" s="18" t="s">
-        <v>463</v>
-      </c>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
       <c r="L34" s="18"/>
     </row>
     <row r="35" ht="16.8" spans="1:12">
@@ -9405,473 +9030,361 @@
       <c r="F35" s="12"/>
       <c r="G35" s="5"/>
       <c r="I35" s="18"/>
-      <c r="J35" s="18" t="s">
-        <v>423</v>
-      </c>
-      <c r="K35" s="18" t="s">
-        <v>464</v>
-      </c>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
       <c r="L35" s="18"/>
     </row>
     <row r="36" ht="16.8" spans="1:12">
       <c r="A36" s="9"/>
-      <c r="B36" s="12" t="s">
-        <v>433</v>
-      </c>
+      <c r="B36" s="12"/>
       <c r="C36" s="13"/>
-      <c r="D36" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>459</v>
-      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
       <c r="F36" s="12"/>
       <c r="G36" s="5"/>
       <c r="I36" s="18"/>
-      <c r="J36" s="16" t="s">
-        <v>466</v>
-      </c>
-      <c r="K36" s="17" t="s">
-        <v>358</v>
-      </c>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
       <c r="L36" s="18"/>
     </row>
     <row r="37" ht="16.8" spans="1:12">
       <c r="A37" s="9"/>
-      <c r="B37" s="12"/>
+      <c r="B37" s="12" t="s">
+        <v>403</v>
+      </c>
       <c r="C37" s="13"/>
       <c r="D37" s="12" t="s">
-        <v>467</v>
+        <v>424</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>459</v>
+        <v>422</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="5"/>
       <c r="I37" s="18"/>
-      <c r="J37" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="K37" s="19" t="s">
-        <v>468</v>
-      </c>
+      <c r="J37" s="16"/>
+      <c r="K37" s="17"/>
       <c r="L37" s="18"/>
     </row>
     <row r="38" ht="16.8" spans="1:12">
       <c r="A38" s="9"/>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="12"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>469</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>470</v>
-      </c>
       <c r="E38" s="12" t="s">
-        <v>471</v>
+        <v>422</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="5"/>
       <c r="I38" s="18"/>
-      <c r="J38" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="K38" s="19" t="s">
-        <v>472</v>
-      </c>
+      <c r="J38" s="18"/>
+      <c r="K38" s="19"/>
       <c r="L38" s="18"/>
     </row>
     <row r="39" ht="16.8" spans="1:12">
       <c r="A39" s="9"/>
       <c r="B39" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="C39" s="13"/>
+        <v>397</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>426</v>
+      </c>
       <c r="D39" s="12" t="s">
-        <v>473</v>
+        <v>427</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>471</v>
+        <v>428</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="5"/>
       <c r="I39" s="18"/>
-      <c r="J39" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="K39" s="19" t="s">
-        <v>474</v>
-      </c>
+      <c r="J39" s="18"/>
+      <c r="K39" s="19"/>
       <c r="L39" s="18"/>
     </row>
     <row r="40" ht="16.8" spans="1:12">
       <c r="A40" s="9"/>
       <c r="B40" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>475</v>
-      </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
+        <v>403</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>428</v>
+      </c>
       <c r="F40" s="12"/>
       <c r="G40" s="5"/>
       <c r="I40" s="18"/>
-      <c r="J40" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="K40" s="19" t="s">
-        <v>476</v>
-      </c>
+      <c r="J40" s="18"/>
+      <c r="K40" s="19"/>
       <c r="L40" s="18"/>
     </row>
     <row r="41" ht="16.8" spans="1:12">
-      <c r="A41" s="14"/>
-      <c r="B41" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>477</v>
-      </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
       <c r="G41" s="5"/>
       <c r="I41" s="18"/>
-      <c r="J41" s="18" t="s">
-        <v>384</v>
-      </c>
-      <c r="K41" s="19" t="s">
-        <v>478</v>
-      </c>
+      <c r="J41" s="18"/>
+      <c r="K41" s="19"/>
       <c r="L41" s="18"/>
     </row>
     <row r="42" ht="16.8" spans="1:12">
       <c r="A42" s="14"/>
       <c r="B42" s="12" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>479</v>
-      </c>
-      <c r="D42" s="14"/>
+        <v>432</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>433</v>
+      </c>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
       <c r="G42" s="5"/>
       <c r="I42" s="18"/>
-      <c r="J42" s="18" t="s">
-        <v>389</v>
-      </c>
-      <c r="K42" s="19" t="s">
-        <v>480</v>
-      </c>
+      <c r="J42" s="18"/>
+      <c r="K42" s="19"/>
       <c r="L42" s="18"/>
     </row>
     <row r="43" ht="16.8" spans="1:12">
-      <c r="A43" t="s">
-        <v>481</v>
-      </c>
-      <c r="B43" t="s">
-        <v>482</v>
-      </c>
-      <c r="C43" t="s">
-        <v>483</v>
-      </c>
+      <c r="A43" s="14"/>
+      <c r="B43" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="5"/>
       <c r="I43" s="18"/>
-      <c r="J43" s="18" t="s">
-        <v>393</v>
-      </c>
-      <c r="K43" s="19" t="s">
-        <v>484</v>
-      </c>
+      <c r="J43" s="18"/>
+      <c r="K43" s="19"/>
       <c r="L43" s="18"/>
     </row>
-    <row r="44" ht="16.8" spans="2:12">
+    <row r="44" ht="16.8" spans="1:12">
+      <c r="A44" t="s">
+        <v>436</v>
+      </c>
       <c r="B44" t="s">
-        <v>332</v>
+        <v>437</v>
       </c>
       <c r="C44" t="s">
-        <v>485</v>
+        <v>438</v>
       </c>
       <c r="I44" s="18"/>
-      <c r="J44" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="K44" s="19" t="s">
-        <v>486</v>
-      </c>
+      <c r="J44" s="18"/>
+      <c r="K44" s="19"/>
       <c r="L44" s="18"/>
     </row>
     <row r="45" ht="16.8" spans="2:12">
       <c r="B45" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C45" t="s">
-        <v>487</v>
+        <v>439</v>
       </c>
       <c r="I45" s="18"/>
-      <c r="J45" s="18" t="s">
-        <v>400</v>
-      </c>
-      <c r="K45" s="19" t="s">
-        <v>488</v>
-      </c>
+      <c r="J45" s="18"/>
+      <c r="K45" s="19"/>
       <c r="L45" s="18"/>
     </row>
     <row r="46" ht="16.8" spans="2:12">
       <c r="B46" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C46" t="s">
-        <v>489</v>
+        <v>440</v>
       </c>
       <c r="I46" s="18"/>
-      <c r="J46" s="18" t="s">
-        <v>405</v>
-      </c>
-      <c r="K46" s="19" t="s">
-        <v>490</v>
-      </c>
+      <c r="J46" s="18"/>
+      <c r="K46" s="19"/>
       <c r="L46" s="18"/>
     </row>
     <row r="47" ht="16.8" spans="2:12">
       <c r="B47" t="s">
+        <v>342</v>
+      </c>
+      <c r="C47" t="s">
+        <v>441</v>
+      </c>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="18"/>
+    </row>
+    <row r="48" ht="16.8" spans="2:12">
+      <c r="B48" t="s">
         <v>347</v>
       </c>
-      <c r="C47" t="s">
-        <v>491</v>
-      </c>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18" t="s">
-        <v>408</v>
-      </c>
-      <c r="K47" s="19" t="s">
-        <v>492</v>
-      </c>
-      <c r="L47" s="18"/>
-    </row>
-    <row r="48" ht="16.8" spans="9:12">
+      <c r="C48" t="s">
+        <v>442</v>
+      </c>
       <c r="I48" s="18"/>
-      <c r="J48" s="18" t="s">
-        <v>411</v>
-      </c>
-      <c r="K48" s="18" t="s">
-        <v>493</v>
-      </c>
+      <c r="J48" s="18"/>
+      <c r="K48" s="19"/>
       <c r="L48" s="18"/>
     </row>
     <row r="49" ht="16.8" spans="9:12">
       <c r="I49" s="18"/>
-      <c r="J49" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="K49" s="18" t="s">
-        <v>494</v>
-      </c>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
       <c r="L49" s="18"/>
     </row>
-    <row r="50" ht="16.8" spans="3:12">
-      <c r="C50" s="15" t="s">
-        <v>495</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>496</v>
-      </c>
-      <c r="E50" s="17" t="s">
-        <v>497</v>
-      </c>
+    <row r="50" ht="16.8" spans="9:12">
       <c r="I50" s="18"/>
-      <c r="J50" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="K50" s="18" t="s">
-        <v>498</v>
-      </c>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
       <c r="L50" s="18"/>
     </row>
     <row r="51" ht="16.8" spans="3:12">
-      <c r="C51" s="15"/>
-      <c r="D51" s="18" t="s">
-        <v>499</v>
-      </c>
-      <c r="E51" s="19" t="s">
-        <v>500</v>
+      <c r="C51" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>445</v>
       </c>
       <c r="I51" s="18"/>
-      <c r="J51" s="18" t="s">
-        <v>501</v>
-      </c>
-      <c r="K51" s="18" t="s">
-        <v>502</v>
-      </c>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
       <c r="L51" s="18"/>
     </row>
     <row r="52" ht="16.8" spans="3:12">
       <c r="C52" s="15"/>
-      <c r="D52" s="18" t="s">
-        <v>503</v>
-      </c>
-      <c r="E52" s="19" t="s">
-        <v>504</v>
-      </c>
+      <c r="D52" s="16"/>
+      <c r="E52" s="17"/>
       <c r="I52" s="18"/>
-      <c r="J52" s="16" t="s">
-        <v>505</v>
-      </c>
-      <c r="K52" s="17" t="s">
-        <v>358</v>
-      </c>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
       <c r="L52" s="18"/>
     </row>
     <row r="53" ht="16.8" spans="3:12">
       <c r="C53" s="15"/>
-      <c r="D53" s="18"/>
+      <c r="D53" s="18" t="s">
+        <v>446</v>
+      </c>
       <c r="E53" s="19" t="s">
-        <v>506</v>
+        <v>447</v>
       </c>
       <c r="I53" s="18"/>
-      <c r="J53" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="K53" s="19" t="s">
-        <v>507</v>
-      </c>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
       <c r="L53" s="18"/>
     </row>
     <row r="54" ht="16.8" spans="3:12">
       <c r="C54" s="15"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="19"/>
+      <c r="D54" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>449</v>
+      </c>
       <c r="I54" s="18"/>
-      <c r="J54" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="K54" s="19" t="s">
-        <v>508</v>
-      </c>
+      <c r="J54" s="16"/>
+      <c r="K54" s="17"/>
       <c r="L54" s="18"/>
     </row>
     <row r="55" ht="16.8" spans="3:12">
       <c r="C55" s="15"/>
       <c r="D55" s="18"/>
-      <c r="E55" s="19"/>
+      <c r="E55" s="19" t="s">
+        <v>450</v>
+      </c>
       <c r="I55" s="18"/>
-      <c r="J55" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="K55" s="19" t="s">
-        <v>509</v>
-      </c>
+      <c r="J55" s="18"/>
+      <c r="K55" s="19"/>
       <c r="L55" s="18"/>
     </row>
-    <row r="56" ht="16.8" spans="9:12">
+    <row r="56" ht="16.8" spans="3:12">
+      <c r="C56" s="15"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="19"/>
       <c r="I56" s="18"/>
-      <c r="J56" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="K56" s="19" t="s">
-        <v>510</v>
-      </c>
+      <c r="J56" s="18"/>
+      <c r="K56" s="19"/>
       <c r="L56" s="18"/>
     </row>
-    <row r="57" ht="16.8" spans="9:12">
+    <row r="57" ht="16.8" spans="3:12">
+      <c r="C57" s="15"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="19"/>
       <c r="I57" s="18"/>
-      <c r="J57" s="18" t="s">
-        <v>384</v>
-      </c>
-      <c r="K57" s="19" t="s">
-        <v>511</v>
-      </c>
+      <c r="J57" s="18"/>
+      <c r="K57" s="19"/>
       <c r="L57" s="18"/>
     </row>
     <row r="58" ht="16.8" spans="9:12">
       <c r="I58" s="18"/>
-      <c r="J58" s="18" t="s">
-        <v>389</v>
-      </c>
-      <c r="K58" s="19" t="s">
-        <v>512</v>
-      </c>
+      <c r="J58" s="18"/>
+      <c r="K58" s="19"/>
       <c r="L58" s="18"/>
     </row>
-    <row r="59" ht="16.8" spans="3:12">
-      <c r="C59" s="15" t="s">
-        <v>513</v>
-      </c>
-      <c r="D59" s="16" t="s">
-        <v>514</v>
-      </c>
-      <c r="E59" s="17" t="s">
-        <v>515</v>
-      </c>
+    <row r="59" ht="16.8" spans="9:12">
       <c r="I59" s="18"/>
-      <c r="J59" s="18" t="s">
-        <v>393</v>
-      </c>
-      <c r="K59" s="19" t="s">
-        <v>516</v>
-      </c>
+      <c r="J59" s="18"/>
+      <c r="K59" s="19"/>
       <c r="L59" s="18"/>
     </row>
-    <row r="60" ht="16.8" spans="3:12">
-      <c r="C60" s="15"/>
-      <c r="D60" s="18" t="s">
-        <v>517</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>518</v>
-      </c>
+    <row r="60" ht="16.8" spans="9:12">
       <c r="I60" s="18"/>
-      <c r="J60" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="K60" s="19" t="s">
-        <v>519</v>
-      </c>
+      <c r="J60" s="18"/>
+      <c r="K60" s="19"/>
       <c r="L60" s="18"/>
     </row>
     <row r="61" ht="16.8" spans="3:12">
-      <c r="C61" s="15"/>
-      <c r="D61" s="18" t="s">
-        <v>520</v>
-      </c>
-      <c r="E61" s="19" t="s">
-        <v>521</v>
+      <c r="C61" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>453</v>
       </c>
       <c r="I61" s="18"/>
-      <c r="J61" s="18" t="s">
-        <v>400</v>
-      </c>
-      <c r="K61" s="19" t="s">
-        <v>522</v>
-      </c>
+      <c r="J61" s="18"/>
+      <c r="K61" s="19"/>
       <c r="L61" s="18"/>
     </row>
     <row r="62" ht="16.8" spans="3:12">
       <c r="C62" s="15"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="19"/>
+      <c r="D62" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>455</v>
+      </c>
       <c r="I62" s="18"/>
-      <c r="J62" s="18" t="s">
-        <v>405</v>
-      </c>
-      <c r="K62" s="19" t="s">
-        <v>523</v>
-      </c>
+      <c r="J62" s="18"/>
+      <c r="K62" s="19"/>
       <c r="L62" s="18"/>
     </row>
     <row r="63" ht="16.8" spans="3:12">
       <c r="C63" s="15"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="19"/>
+      <c r="D63" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>457</v>
+      </c>
       <c r="I63" s="18"/>
-      <c r="J63" s="18" t="s">
-        <v>408</v>
-      </c>
-      <c r="K63" s="19" t="s">
-        <v>524</v>
-      </c>
+      <c r="J63" s="18"/>
+      <c r="K63" s="19"/>
       <c r="L63" s="18"/>
     </row>
     <row r="64" ht="16.8" spans="3:12">
@@ -9879,212 +9392,679 @@
       <c r="D64" s="18"/>
       <c r="E64" s="19"/>
       <c r="I64" s="18"/>
-      <c r="J64" s="18" t="s">
-        <v>411</v>
-      </c>
-      <c r="K64" s="18" t="s">
-        <v>525</v>
-      </c>
+      <c r="J64" s="18"/>
+      <c r="K64" s="19"/>
       <c r="L64" s="18"/>
     </row>
-    <row r="65" ht="16.8" spans="9:12">
+    <row r="65" ht="16.8" spans="3:12">
+      <c r="C65" s="15"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="19"/>
       <c r="I65" s="18"/>
-      <c r="J65" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="K65" s="18" t="s">
-        <v>526</v>
-      </c>
+      <c r="J65" s="18"/>
+      <c r="K65" s="19"/>
       <c r="L65" s="18"/>
     </row>
-    <row r="66" ht="16.8" spans="9:12">
+    <row r="66" ht="16.8" spans="3:12">
+      <c r="C66" s="15"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="19"/>
       <c r="I66" s="18"/>
-      <c r="J66" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="K66" s="18" t="s">
-        <v>527</v>
-      </c>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
       <c r="L66" s="18"/>
     </row>
     <row r="67" ht="16.8" spans="9:12">
       <c r="I67" s="18"/>
-      <c r="J67" s="18" t="s">
-        <v>501</v>
-      </c>
-      <c r="K67" s="18" t="s">
-        <v>528</v>
-      </c>
+      <c r="J67" s="18"/>
+      <c r="K67" s="18"/>
       <c r="L67" s="18"/>
     </row>
     <row r="68" ht="16.8" spans="9:12">
       <c r="I68" s="18"/>
-      <c r="J68" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="K68" s="17" t="s">
-        <v>358</v>
-      </c>
+      <c r="J68" s="18"/>
+      <c r="K68" s="18"/>
       <c r="L68" s="18"/>
     </row>
     <row r="69" ht="16.8" spans="9:12">
       <c r="I69" s="18"/>
-      <c r="J69" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="K69" s="19" t="s">
-        <v>530</v>
-      </c>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
       <c r="L69" s="18"/>
     </row>
     <row r="70" ht="16.8" spans="9:12">
       <c r="I70" s="18"/>
-      <c r="J70" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="K70" s="19" t="s">
-        <v>531</v>
-      </c>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
       <c r="L70" s="18"/>
     </row>
     <row r="71" ht="16.8" spans="9:12">
       <c r="I71" s="18"/>
-      <c r="J71" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="K71" s="19" t="s">
-        <v>532</v>
-      </c>
+      <c r="J71" s="16"/>
+      <c r="K71" s="17"/>
       <c r="L71" s="18"/>
     </row>
     <row r="72" ht="16.8" spans="9:12">
       <c r="I72" s="18"/>
-      <c r="J72" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="K72" s="19" t="s">
-        <v>533</v>
-      </c>
+      <c r="J72" s="18"/>
+      <c r="K72" s="19"/>
       <c r="L72" s="18"/>
     </row>
     <row r="73" ht="16.8" spans="9:12">
       <c r="I73" s="18"/>
-      <c r="J73" s="18" t="s">
-        <v>384</v>
-      </c>
-      <c r="K73" s="19" t="s">
-        <v>534</v>
-      </c>
+      <c r="J73" s="18"/>
+      <c r="K73" s="19"/>
       <c r="L73" s="18"/>
     </row>
     <row r="74" ht="16.8" spans="9:12">
       <c r="I74" s="18"/>
-      <c r="J74" s="18" t="s">
-        <v>389</v>
-      </c>
-      <c r="K74" s="19" t="s">
-        <v>535</v>
-      </c>
+      <c r="J74" s="18"/>
+      <c r="K74" s="19"/>
       <c r="L74" s="18"/>
     </row>
     <row r="75" ht="16.8" spans="9:12">
       <c r="I75" s="18"/>
-      <c r="J75" s="18" t="s">
-        <v>393</v>
-      </c>
-      <c r="K75" s="19" t="s">
-        <v>536</v>
-      </c>
+      <c r="J75" s="18"/>
+      <c r="K75" s="19"/>
       <c r="L75" s="18"/>
     </row>
     <row r="76" ht="16.8" spans="9:12">
       <c r="I76" s="18"/>
-      <c r="J76" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="K76" s="19" t="s">
-        <v>537</v>
-      </c>
+      <c r="J76" s="18"/>
+      <c r="K76" s="19"/>
       <c r="L76" s="18"/>
     </row>
     <row r="77" ht="16.8" spans="9:12">
       <c r="I77" s="18"/>
-      <c r="J77" s="18" t="s">
-        <v>400</v>
-      </c>
-      <c r="K77" s="19" t="s">
-        <v>538</v>
-      </c>
+      <c r="J77" s="18"/>
+      <c r="K77" s="19"/>
       <c r="L77" s="18"/>
     </row>
     <row r="78" ht="16.8" spans="9:12">
       <c r="I78" s="18"/>
-      <c r="J78" s="18" t="s">
-        <v>405</v>
-      </c>
-      <c r="K78" s="19" t="s">
-        <v>539</v>
-      </c>
+      <c r="J78" s="18"/>
+      <c r="K78" s="19"/>
       <c r="L78" s="18"/>
     </row>
     <row r="79" ht="16.8" spans="9:12">
       <c r="I79" s="18"/>
-      <c r="J79" s="18" t="s">
-        <v>408</v>
-      </c>
-      <c r="K79" s="19" t="s">
-        <v>540</v>
-      </c>
+      <c r="J79" s="18"/>
+      <c r="K79" s="19"/>
       <c r="L79" s="18"/>
     </row>
     <row r="80" ht="16.8" spans="9:12">
       <c r="I80" s="18"/>
-      <c r="J80" s="18" t="s">
-        <v>411</v>
-      </c>
-      <c r="K80" s="18" t="s">
-        <v>541</v>
-      </c>
+      <c r="J80" s="18"/>
+      <c r="K80" s="19"/>
       <c r="L80" s="18"/>
     </row>
     <row r="81" ht="16.8" spans="9:12">
       <c r="I81" s="18"/>
-      <c r="J81" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="K81" s="18" t="s">
-        <v>542</v>
-      </c>
+      <c r="J81" s="18"/>
+      <c r="K81" s="19"/>
       <c r="L81" s="18"/>
     </row>
     <row r="82" ht="16.8" spans="9:12">
       <c r="I82" s="18"/>
-      <c r="J82" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="K82" s="18" t="s">
-        <v>543</v>
-      </c>
+      <c r="J82" s="18"/>
+      <c r="K82" s="19"/>
       <c r="L82" s="18"/>
     </row>
     <row r="83" ht="16.8" spans="9:12">
       <c r="I83" s="18"/>
-      <c r="J83" s="18" t="s">
-        <v>501</v>
-      </c>
-      <c r="K83" s="18" t="s">
-        <v>544</v>
-      </c>
+      <c r="J83" s="18"/>
+      <c r="K83" s="18"/>
       <c r="L83" s="18"/>
+    </row>
+    <row r="84" ht="16.8" spans="9:12">
+      <c r="I84" s="18"/>
+      <c r="J84" s="18"/>
+      <c r="K84" s="18"/>
+      <c r="L84" s="18"/>
+    </row>
+    <row r="85" ht="16.8" spans="9:12">
+      <c r="I85" s="18"/>
+      <c r="J85" s="18"/>
+      <c r="K85" s="18"/>
+      <c r="L85" s="18"/>
+    </row>
+    <row r="86" ht="16.8" spans="9:12">
+      <c r="I86" s="18"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="18"/>
+    </row>
+    <row r="87" ht="16.8" spans="9:12">
+      <c r="I87" s="18"/>
+      <c r="J87" s="18"/>
+      <c r="K87" s="18"/>
+      <c r="L87" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A23"/>
-    <mergeCell ref="A27:A40"/>
-    <mergeCell ref="G1:G41"/>
+    <mergeCell ref="A28:A41"/>
+    <mergeCell ref="G1:G42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A100"/>
+  <sheetViews>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="H120" sqref="H120"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>458</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Document/Inout_Assy.xlsx
+++ b/Document/Inout_Assy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="15264" activeTab="6"/>
+    <workbookView windowWidth="30720" windowHeight="15264" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Cụm Băng Tải" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="470">
   <si>
     <t>STT</t>
   </si>
@@ -1258,18 +1258,33 @@
     <t>Cụm Output</t>
   </si>
   <si>
-    <t>D545</t>
+    <t>D945</t>
   </si>
   <si>
     <t>DoneFrame</t>
   </si>
   <si>
-    <t>D546.0 (Giữ 10s)</t>
+    <t>Cụm Outpur</t>
+  </si>
+  <si>
+    <t>D946.0 (Giữ 10s)</t>
   </si>
   <si>
     <t>Thả vào tray xong</t>
   </si>
   <si>
+    <t>CoditionBT</t>
+  </si>
+  <si>
+    <t>Cụm LV</t>
+  </si>
+  <si>
+    <t>D645.0</t>
+  </si>
+  <si>
+    <t>Khống chế BT</t>
+  </si>
+  <si>
     <t>Master - Slave</t>
   </si>
   <si>
@@ -1321,16 +1336,34 @@
     <t>Done Order</t>
   </si>
   <si>
+    <t>D990</t>
+  </si>
+  <si>
+    <t>D990.0 (Server giữ 10s)</t>
+  </si>
+  <si>
+    <t>Cụm Output (tương ứng D590)</t>
+  </si>
+  <si>
+    <t>Traffic</t>
+  </si>
+  <si>
+    <t>D991</t>
+  </si>
+  <si>
+    <t>Cụm Output tương ứng D591)</t>
+  </si>
+  <si>
+    <t>Free_BT</t>
+  </si>
+  <si>
     <t>D590</t>
   </si>
   <si>
-    <t>D590.0 (Server giữ 10s)</t>
-  </si>
-  <si>
-    <t>Traffic</t>
-  </si>
-  <si>
-    <t>D591</t>
+    <t>D590.0</t>
+  </si>
+  <si>
+    <t>Cụm BT Báo Free</t>
   </si>
   <si>
     <t>DB Master</t>
@@ -2262,7 +2295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2294,6 +2327,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2909,925 +2950,925 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.13888888888889" customWidth="1"/>
-    <col min="2" max="2" width="43.5740740740741" style="115" customWidth="1"/>
-    <col min="3" max="3" width="27.712962962963" style="115" customWidth="1"/>
+    <col min="2" max="2" width="43.5740740740741" style="119" customWidth="1"/>
+    <col min="3" max="3" width="27.712962962963" style="119" customWidth="1"/>
     <col min="4" max="4" width="10.287037037037" customWidth="1"/>
     <col min="5" max="5" width="17.4259259259259" customWidth="1"/>
     <col min="6" max="6" width="67.1388888888889" customWidth="1"/>
-    <col min="7" max="7" width="9.13888888888889" style="116"/>
-    <col min="8" max="8" width="85.8611111111111" style="116" customWidth="1"/>
-    <col min="9" max="9" width="37.4259259259259" style="116" customWidth="1"/>
-    <col min="10" max="10" width="49.287037037037" style="116" customWidth="1"/>
-    <col min="11" max="11" width="15.5740740740741" style="116" customWidth="1"/>
-    <col min="12" max="12" width="56.5740740740741" style="116" customWidth="1"/>
-    <col min="13" max="13" width="57.5740740740741" style="116" customWidth="1"/>
-    <col min="14" max="14" width="9.13888888888889" style="116"/>
+    <col min="7" max="7" width="9.13888888888889" style="120"/>
+    <col min="8" max="8" width="85.8611111111111" style="120" customWidth="1"/>
+    <col min="9" max="9" width="37.4259259259259" style="120" customWidth="1"/>
+    <col min="10" max="10" width="49.287037037037" style="120" customWidth="1"/>
+    <col min="11" max="11" width="15.5740740740741" style="120" customWidth="1"/>
+    <col min="12" max="12" width="56.5740740740741" style="120" customWidth="1"/>
+    <col min="13" max="13" width="57.5740740740741" style="120" customWidth="1"/>
+    <col min="14" max="14" width="9.13888888888889" style="120"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" spans="1:13">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="97" t="s">
+      <c r="B1" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
     </row>
     <row r="2" ht="42" spans="1:13">
-      <c r="A2" s="62">
-        <v>1</v>
-      </c>
-      <c r="B2" s="114" t="s">
+      <c r="A2" s="66">
+        <v>1</v>
+      </c>
+      <c r="B2" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="62">
-        <v>1</v>
-      </c>
-      <c r="F2" s="117"/>
-      <c r="G2" s="118" t="s">
+      <c r="D2" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="66">
+        <v>1</v>
+      </c>
+      <c r="F2" s="121"/>
+      <c r="G2" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="118"/>
-      <c r="I2" s="98" t="s">
+      <c r="H2" s="122"/>
+      <c r="I2" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="98" t="s">
+      <c r="J2" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="122">
-        <v>1</v>
-      </c>
-      <c r="L2" s="98" t="s">
+      <c r="K2" s="126">
+        <v>1</v>
+      </c>
+      <c r="L2" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="122">
+      <c r="M2" s="126">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="42" spans="1:13">
-      <c r="A3" s="62">
+      <c r="A3" s="66">
         <v>2</v>
       </c>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="62">
-        <v>1</v>
-      </c>
-      <c r="F3" s="117"/>
-      <c r="G3" s="118" t="s">
+      <c r="D3" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="66">
+        <v>1</v>
+      </c>
+      <c r="F3" s="121"/>
+      <c r="G3" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="118"/>
-      <c r="I3" s="98" t="s">
+      <c r="H3" s="122"/>
+      <c r="I3" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="98" t="s">
+      <c r="J3" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="122">
+      <c r="K3" s="126">
         <v>4</v>
       </c>
-      <c r="L3" s="98" t="s">
+      <c r="L3" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="122">
+      <c r="M3" s="126">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="42" spans="1:13">
-      <c r="A4" s="62">
+      <c r="A4" s="66">
         <v>3</v>
       </c>
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="119" t="s">
+      <c r="C4" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="62">
-        <v>1</v>
-      </c>
-      <c r="F4" s="117"/>
-      <c r="G4" s="118" t="s">
+      <c r="D4" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="66">
+        <v>1</v>
+      </c>
+      <c r="F4" s="121"/>
+      <c r="G4" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="118"/>
-      <c r="I4" s="98" t="s">
+      <c r="H4" s="122"/>
+      <c r="I4" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="98" t="s">
+      <c r="J4" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="122">
+      <c r="K4" s="126">
         <v>2</v>
       </c>
-      <c r="L4" s="98" t="s">
+      <c r="L4" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="122">
+      <c r="M4" s="126">
         <v>2</v>
       </c>
     </row>
     <row r="5" ht="42" spans="1:13">
-      <c r="A5" s="62">
+      <c r="A5" s="66">
         <v>4</v>
       </c>
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="62">
-        <v>1</v>
-      </c>
-      <c r="F5" s="117"/>
-      <c r="G5" s="118" t="s">
+      <c r="D5" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="66">
+        <v>1</v>
+      </c>
+      <c r="F5" s="121"/>
+      <c r="G5" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="118"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="98" t="s">
+      <c r="H5" s="122"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="122">
+      <c r="M5" s="126">
         <v>4</v>
       </c>
     </row>
     <row r="6" ht="42" spans="1:13">
-      <c r="A6" s="62">
+      <c r="A6" s="66">
         <v>5</v>
       </c>
-      <c r="B6" s="114" t="s">
+      <c r="B6" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="62">
-        <v>1</v>
-      </c>
-      <c r="F6" s="117"/>
-      <c r="G6" s="118" t="s">
+      <c r="D6" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="66">
+        <v>1</v>
+      </c>
+      <c r="F6" s="121"/>
+      <c r="G6" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="118"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="122"/>
-      <c r="L6" s="98" t="s">
+      <c r="H6" s="122"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="122">
+      <c r="M6" s="126">
         <v>1</v>
       </c>
     </row>
     <row r="7" ht="21" spans="1:13">
-      <c r="A7" s="62">
+      <c r="A7" s="66">
         <v>6</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="62">
-        <v>1</v>
-      </c>
-      <c r="F7" s="117"/>
-      <c r="G7" s="118" t="s">
+      <c r="D7" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="66">
+        <v>1</v>
+      </c>
+      <c r="F7" s="121"/>
+      <c r="G7" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="118"/>
-      <c r="I7" s="98" t="s">
+      <c r="H7" s="122"/>
+      <c r="I7" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="98" t="s">
+      <c r="J7" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="122">
-        <v>1</v>
-      </c>
-      <c r="L7" s="123" t="s">
+      <c r="K7" s="126">
+        <v>1</v>
+      </c>
+      <c r="L7" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="122"/>
+      <c r="M7" s="126"/>
     </row>
     <row r="8" ht="21" spans="1:13">
-      <c r="A8" s="62">
+      <c r="A8" s="66">
         <v>7</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="62">
-        <v>1</v>
-      </c>
-      <c r="F8" s="117"/>
-      <c r="G8" s="118" t="s">
+      <c r="D8" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="66">
+        <v>1</v>
+      </c>
+      <c r="F8" s="121"/>
+      <c r="G8" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="118"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="122"/>
-      <c r="L8" s="98" t="s">
+      <c r="H8" s="122"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="M8" s="122">
+      <c r="M8" s="126">
         <v>1</v>
       </c>
     </row>
     <row r="9" ht="21" spans="1:13">
-      <c r="A9" s="62">
-        <v>8</v>
-      </c>
-      <c r="B9" s="84" t="s">
+      <c r="A9" s="66">
+        <v>8</v>
+      </c>
+      <c r="B9" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="85">
-        <v>1</v>
-      </c>
-      <c r="F9" s="117"/>
-      <c r="G9" s="118" t="s">
+      <c r="D9" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="89">
+        <v>1</v>
+      </c>
+      <c r="F9" s="121"/>
+      <c r="G9" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="118"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="98" t="s">
+      <c r="H9" s="122"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="M9" s="122">
+      <c r="M9" s="126">
         <v>3</v>
       </c>
     </row>
     <row r="10" ht="21" spans="1:13">
-      <c r="A10" s="62">
+      <c r="A10" s="66">
         <v>9</v>
       </c>
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="85">
-        <v>1</v>
-      </c>
-      <c r="F10" s="120"/>
-      <c r="G10" s="118" t="s">
+      <c r="D10" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="89">
+        <v>1</v>
+      </c>
+      <c r="F10" s="124"/>
+      <c r="G10" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="125">
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="129">
         <f>SUM(K2:K9)</f>
         <v>8</v>
       </c>
-      <c r="L10" s="124" t="s">
+      <c r="L10" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="M10" s="125">
+      <c r="M10" s="129">
         <f>SUM(M2:M9)</f>
         <v>20</v>
       </c>
     </row>
     <row r="11" ht="21" spans="1:13">
-      <c r="A11" s="62">
+      <c r="A11" s="66">
         <v>10</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="80">
-        <v>1</v>
-      </c>
-      <c r="F11" s="120"/>
-      <c r="G11" s="118" t="s">
+      <c r="D11" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="84">
+        <v>1</v>
+      </c>
+      <c r="F11" s="124"/>
+      <c r="G11" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98">
+      <c r="H11" s="102"/>
+      <c r="I11" s="102">
         <f ca="1">C11:I15</f>
         <v>0</v>
       </c>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="98"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
     </row>
     <row r="12" ht="21" spans="1:13">
-      <c r="A12" s="62">
+      <c r="A12" s="66">
         <v>11</v>
       </c>
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="77" t="s">
+      <c r="C12" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="78">
-        <v>1</v>
-      </c>
-      <c r="F12" s="120"/>
-      <c r="G12" s="118" t="s">
+      <c r="D12" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="82">
+        <v>1</v>
+      </c>
+      <c r="F12" s="124"/>
+      <c r="G12" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="98"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="98"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="102"/>
     </row>
     <row r="13" ht="21" spans="1:13">
-      <c r="A13" s="62">
+      <c r="A13" s="66">
         <v>12</v>
       </c>
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="77"/>
-      <c r="D13" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="78">
-        <v>1</v>
-      </c>
-      <c r="F13" s="120"/>
-      <c r="G13" s="118" t="s">
+      <c r="C13" s="81"/>
+      <c r="D13" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="82">
+        <v>1</v>
+      </c>
+      <c r="F13" s="124"/>
+      <c r="G13" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="98" t="s">
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="M13" s="98"/>
+      <c r="M13" s="102"/>
     </row>
     <row r="14" ht="21" spans="1:13">
-      <c r="A14" s="62">
+      <c r="A14" s="66">
         <v>13</v>
       </c>
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="77" t="s">
+      <c r="C14" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="78">
-        <v>1</v>
-      </c>
-      <c r="F14" s="120"/>
-      <c r="G14" s="118" t="s">
+      <c r="D14" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="82">
+        <v>1</v>
+      </c>
+      <c r="F14" s="124"/>
+      <c r="G14" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98" t="s">
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="102"/>
     </row>
     <row r="15" ht="21" spans="1:13">
-      <c r="A15" s="62">
+      <c r="A15" s="66">
         <v>14</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="80">
+      <c r="D15" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="84">
         <v>3</v>
       </c>
-      <c r="F15" s="120"/>
-      <c r="G15" s="118" t="s">
+      <c r="F15" s="124"/>
+      <c r="G15" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="98"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="102"/>
     </row>
     <row r="16" ht="42" spans="1:13">
-      <c r="A16" s="62">
+      <c r="A16" s="66">
         <v>15</v>
       </c>
-      <c r="B16" s="114" t="s">
+      <c r="B16" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="80">
-        <v>1</v>
-      </c>
-      <c r="F16" s="120"/>
-      <c r="G16" s="118" t="s">
+      <c r="D16" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="84">
+        <v>1</v>
+      </c>
+      <c r="F16" s="124"/>
+      <c r="G16" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="98"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="102"/>
     </row>
     <row r="17" ht="42" spans="1:13">
-      <c r="A17" s="62">
+      <c r="A17" s="66">
         <v>16</v>
       </c>
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="80">
+      <c r="D17" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="84">
         <v>30</v>
       </c>
-      <c r="F17" s="120"/>
-      <c r="G17" s="118" t="s">
+      <c r="F17" s="124"/>
+      <c r="G17" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="98"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="102"/>
     </row>
     <row r="18" ht="21" spans="1:13">
-      <c r="A18" s="62">
+      <c r="A18" s="66">
         <v>17</v>
       </c>
-      <c r="B18" s="114" t="s">
+      <c r="B18" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="80">
+      <c r="C18" s="64"/>
+      <c r="D18" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="84">
         <v>2</v>
       </c>
-      <c r="F18" s="120"/>
-      <c r="G18" s="118" t="s">
+      <c r="F18" s="124"/>
+      <c r="G18" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="98"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="98"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="102"/>
     </row>
     <row r="19" ht="21" spans="1:13">
-      <c r="A19" s="62">
+      <c r="A19" s="66">
         <v>18</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="80">
+      <c r="D19" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="84">
         <v>4</v>
       </c>
-      <c r="F19" s="120"/>
-      <c r="G19" s="118" t="s">
+      <c r="F19" s="124"/>
+      <c r="G19" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="98"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="98"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="102"/>
     </row>
     <row r="20" ht="42" spans="1:13">
-      <c r="A20" s="62">
+      <c r="A20" s="66">
         <v>19</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="80">
+      <c r="D20" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="84">
         <v>10</v>
       </c>
-      <c r="F20" s="120"/>
-      <c r="G20" s="118" t="s">
+      <c r="F20" s="124"/>
+      <c r="G20" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="98"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="98"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="102"/>
     </row>
     <row r="21" ht="21" spans="1:13">
-      <c r="A21" s="62">
+      <c r="A21" s="66">
         <v>20</v>
       </c>
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="60"/>
-      <c r="D21" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="83">
+      <c r="C21" s="64"/>
+      <c r="D21" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="87">
         <v>2</v>
       </c>
-      <c r="F21" s="120"/>
-      <c r="G21" s="118" t="s">
+      <c r="F21" s="124"/>
+      <c r="G21" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="98"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="98"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="98"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="102"/>
     </row>
     <row r="22" ht="21" spans="1:13">
-      <c r="A22" s="62">
+      <c r="A22" s="66">
         <v>21</v>
       </c>
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="77" t="s">
+      <c r="C22" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="78">
-        <v>1</v>
-      </c>
-      <c r="F22" s="120"/>
-      <c r="G22" s="118" t="s">
+      <c r="D22" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="82">
+        <v>1</v>
+      </c>
+      <c r="F22" s="124"/>
+      <c r="G22" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="98"/>
-      <c r="I22" s="98"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="98"/>
-      <c r="L22" s="98"/>
-      <c r="M22" s="98"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="102"/>
+      <c r="L22" s="102"/>
+      <c r="M22" s="102"/>
     </row>
     <row r="23" ht="21" spans="1:13">
-      <c r="A23" s="62">
+      <c r="A23" s="66">
         <v>22</v>
       </c>
-      <c r="B23" s="77" t="s">
+      <c r="B23" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="62">
-        <v>1</v>
-      </c>
-      <c r="F23" s="120"/>
-      <c r="G23" s="118" t="s">
+      <c r="D23" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="66">
+        <v>1</v>
+      </c>
+      <c r="F23" s="124"/>
+      <c r="G23" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="H23" s="98"/>
-      <c r="I23" s="98"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="98"/>
-      <c r="L23" s="98"/>
-      <c r="M23" s="98"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="102"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="102"/>
     </row>
     <row r="24" ht="21" spans="1:13">
-      <c r="A24" s="62">
+      <c r="A24" s="66">
         <v>23</v>
       </c>
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="89" t="s">
+      <c r="C24" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="62">
+      <c r="D24" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="66">
         <v>5</v>
       </c>
-      <c r="F24" s="120"/>
-      <c r="G24" s="118" t="s">
+      <c r="F24" s="124"/>
+      <c r="G24" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="H24" s="98"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="98"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="98"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="102"/>
     </row>
     <row r="25" ht="42" spans="1:13">
-      <c r="A25" s="62">
+      <c r="A25" s="66">
         <v>24</v>
       </c>
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="89" t="s">
+      <c r="C25" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="62">
-        <v>1</v>
-      </c>
-      <c r="F25" s="120"/>
-      <c r="G25" s="118" t="s">
+      <c r="D25" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="66">
+        <v>1</v>
+      </c>
+      <c r="F25" s="124"/>
+      <c r="G25" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="98"/>
-      <c r="I25" s="98"/>
-      <c r="J25" s="98"/>
-      <c r="K25" s="98"/>
-      <c r="L25" s="98"/>
-      <c r="M25" s="98"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
     </row>
     <row r="26" ht="21" spans="1:13">
-      <c r="A26" s="62">
+      <c r="A26" s="66">
         <v>25</v>
       </c>
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="77" t="s">
+      <c r="C26" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="62">
-        <v>8</v>
-      </c>
-      <c r="F26" s="120"/>
-      <c r="G26" s="118" t="s">
+      <c r="D26" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="66">
+        <v>8</v>
+      </c>
+      <c r="F26" s="124"/>
+      <c r="G26" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="H26" s="98"/>
-      <c r="I26" s="98"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="98"/>
-      <c r="L26" s="98"/>
-      <c r="M26" s="98"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="102"/>
+      <c r="J26" s="102"/>
+      <c r="K26" s="102"/>
+      <c r="L26" s="102"/>
+      <c r="M26" s="102"/>
     </row>
     <row r="27" ht="21" spans="1:13">
-      <c r="A27" s="62">
+      <c r="A27" s="66">
         <v>26</v>
       </c>
-      <c r="B27" s="77" t="s">
+      <c r="B27" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="77" t="s">
+      <c r="C27" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="62">
+      <c r="D27" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="66">
         <v>2</v>
       </c>
-      <c r="F27" s="120" t="s">
+      <c r="F27" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="G27" s="118" t="s">
+      <c r="G27" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="H27" s="98"/>
-      <c r="I27" s="98"/>
-      <c r="J27" s="98"/>
-      <c r="K27" s="98"/>
-      <c r="L27" s="98"/>
-      <c r="M27" s="98"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="102"/>
+      <c r="M27" s="102"/>
     </row>
     <row r="28" ht="21" spans="1:13">
-      <c r="A28" s="62">
+      <c r="A28" s="66">
         <v>27</v>
       </c>
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="77" t="s">
+      <c r="C28" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="62">
+      <c r="D28" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="66">
         <v>4</v>
       </c>
-      <c r="F28" s="120"/>
-      <c r="G28" s="118" t="s">
+      <c r="F28" s="124"/>
+      <c r="G28" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="98"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="98"/>
-      <c r="L28" s="98"/>
-      <c r="M28" s="98"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="102"/>
+      <c r="L28" s="102"/>
+      <c r="M28" s="102"/>
     </row>
     <row r="29" ht="21" spans="1:13">
-      <c r="A29" s="62">
+      <c r="A29" s="66">
         <v>28</v>
       </c>
-      <c r="B29" s="77" t="s">
+      <c r="B29" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="77" t="s">
+      <c r="C29" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="62">
-        <v>1</v>
-      </c>
-      <c r="F29" s="120"/>
-      <c r="G29" s="118" t="s">
+      <c r="D29" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="66">
+        <v>1</v>
+      </c>
+      <c r="F29" s="124"/>
+      <c r="G29" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="H29" s="98"/>
-      <c r="I29" s="98"/>
-      <c r="J29" s="98"/>
-      <c r="K29" s="98"/>
-      <c r="L29" s="98"/>
-      <c r="M29" s="98"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="102"/>
+      <c r="K29" s="102"/>
+      <c r="L29" s="102"/>
+      <c r="M29" s="102"/>
     </row>
     <row r="30" ht="21" spans="1:13">
-      <c r="A30" s="62">
+      <c r="A30" s="66">
         <v>29</v>
       </c>
-      <c r="B30" s="77" t="s">
+      <c r="B30" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="77" t="s">
+      <c r="C30" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="62">
-        <v>1</v>
-      </c>
-      <c r="F30" s="120"/>
-      <c r="G30" s="118" t="s">
+      <c r="D30" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="66">
+        <v>1</v>
+      </c>
+      <c r="F30" s="124"/>
+      <c r="G30" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="H30" s="98"/>
-      <c r="I30" s="98"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="98"/>
-      <c r="L30" s="98"/>
-      <c r="M30" s="98"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="102"/>
+      <c r="L30" s="102"/>
+      <c r="M30" s="102"/>
     </row>
     <row r="31" ht="21" spans="1:13">
-      <c r="A31" s="62">
+      <c r="A31" s="66">
         <v>30</v>
       </c>
-      <c r="B31" s="77" t="s">
+      <c r="B31" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="77" t="s">
+      <c r="C31" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="62">
+      <c r="D31" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="66">
         <v>3</v>
       </c>
-      <c r="F31" s="120"/>
-      <c r="G31" s="118" t="s">
+      <c r="F31" s="124"/>
+      <c r="G31" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="98"/>
-      <c r="I31" s="98"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="98"/>
-      <c r="L31" s="98"/>
-      <c r="M31" s="98"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="102"/>
+      <c r="L31" s="102"/>
+      <c r="M31" s="102"/>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="113" t="s">
+      <c r="B40" s="117" t="s">
         <v>83</v>
       </c>
       <c r="C40" t="s">
@@ -3838,7 +3879,7 @@
       </c>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="113"/>
+      <c r="B41" s="117"/>
       <c r="C41" t="s">
         <v>86</v>
       </c>
@@ -3847,7 +3888,7 @@
       </c>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="113"/>
+      <c r="B42" s="117"/>
       <c r="C42" t="s">
         <v>88</v>
       </c>
@@ -3856,7 +3897,7 @@
       </c>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="113"/>
+      <c r="B43" s="117"/>
       <c r="C43" t="s">
         <v>90</v>
       </c>
@@ -3865,7 +3906,7 @@
       </c>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="113"/>
+      <c r="B44" s="117"/>
       <c r="C44" t="s">
         <v>92</v>
       </c>
@@ -3874,7 +3915,7 @@
       </c>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" s="113"/>
+      <c r="B45" s="117"/>
       <c r="C45" t="s">
         <v>94</v>
       </c>
@@ -3892,7 +3933,7 @@
       </c>
     </row>
     <row r="47" spans="3:4">
-      <c r="C47" s="115" t="s">
+      <c r="C47" s="119" t="s">
         <v>98</v>
       </c>
       <c r="D47" t="s">
@@ -3900,7 +3941,7 @@
       </c>
     </row>
     <row r="48" spans="3:4">
-      <c r="C48" s="115" t="s">
+      <c r="C48" s="119" t="s">
         <v>100</v>
       </c>
       <c r="D48" t="s">
@@ -3908,7 +3949,7 @@
       </c>
     </row>
     <row r="49" spans="3:4">
-      <c r="C49" s="115" t="s">
+      <c r="C49" s="119" t="s">
         <v>102</v>
       </c>
       <c r="D49" t="s">
@@ -3916,7 +3957,7 @@
       </c>
     </row>
     <row r="50" spans="3:4">
-      <c r="C50" s="115" t="s">
+      <c r="C50" s="119" t="s">
         <v>104</v>
       </c>
       <c r="D50" t="s">
@@ -3924,7 +3965,7 @@
       </c>
     </row>
     <row r="51" spans="3:4">
-      <c r="C51" s="115" t="s">
+      <c r="C51" s="119" t="s">
         <v>106</v>
       </c>
       <c r="D51" t="s">
@@ -3955,8 +3996,8 @@
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="52.4259259259259" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="26.5740740740741" style="113" customWidth="1"/>
-    <col min="5" max="5" width="17.4259259259259" style="113" customWidth="1"/>
+    <col min="4" max="4" width="26.5740740740741" style="117" customWidth="1"/>
+    <col min="5" max="5" width="17.4259259259259" style="117" customWidth="1"/>
     <col min="6" max="6" width="12.712962962963" customWidth="1"/>
     <col min="7" max="7" width="21.287037037037" customWidth="1"/>
     <col min="8" max="8" width="31" customWidth="1"/>
@@ -3964,755 +4005,755 @@
   </cols>
   <sheetData>
     <row r="1" ht="20.4" spans="1:6">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="97" t="s">
+      <c r="B1" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="101" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="21" spans="1:6">
-      <c r="A2" s="62">
-        <v>1</v>
-      </c>
-      <c r="B2" s="114" t="s">
+      <c r="A2" s="66">
+        <v>1</v>
+      </c>
+      <c r="B2" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="62">
-        <v>1</v>
-      </c>
-      <c r="F2" s="76"/>
+      <c r="D2" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="66">
+        <v>1</v>
+      </c>
+      <c r="F2" s="80"/>
     </row>
     <row r="3" ht="21" spans="1:6">
-      <c r="A3" s="62">
+      <c r="A3" s="66">
         <v>2</v>
       </c>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="62">
+      <c r="D3" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="66">
         <v>3</v>
       </c>
-      <c r="F3" s="76"/>
+      <c r="F3" s="80"/>
     </row>
     <row r="4" ht="21" spans="1:6">
-      <c r="A4" s="62">
+      <c r="A4" s="66">
         <v>3</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="62">
-        <v>1</v>
-      </c>
-      <c r="F4" s="76"/>
+      <c r="D4" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="66">
+        <v>1</v>
+      </c>
+      <c r="F4" s="80"/>
     </row>
     <row r="5" ht="42" spans="1:6">
-      <c r="A5" s="62">
+      <c r="A5" s="66">
         <v>4</v>
       </c>
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="118" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="78">
-        <v>1</v>
-      </c>
-      <c r="F5" s="76"/>
+      <c r="D5" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="82">
+        <v>1</v>
+      </c>
+      <c r="F5" s="80"/>
     </row>
     <row r="6" ht="21" spans="1:6">
-      <c r="A6" s="62">
+      <c r="A6" s="66">
         <v>5</v>
       </c>
-      <c r="B6" s="114" t="s">
+      <c r="B6" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="62">
-        <v>1</v>
-      </c>
-      <c r="F6" s="76"/>
+      <c r="D6" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="66">
+        <v>1</v>
+      </c>
+      <c r="F6" s="80"/>
     </row>
     <row r="7" ht="42" spans="1:6">
-      <c r="A7" s="62">
+      <c r="A7" s="66">
         <v>6</v>
       </c>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="118" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="62">
-        <v>1</v>
-      </c>
-      <c r="F7" s="76"/>
+      <c r="D7" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="66">
+        <v>1</v>
+      </c>
+      <c r="F7" s="80"/>
     </row>
     <row r="8" ht="42" spans="1:6">
-      <c r="A8" s="62">
+      <c r="A8" s="66">
         <v>7</v>
       </c>
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="118" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="80">
-        <v>1</v>
-      </c>
-      <c r="F8" s="76"/>
+      <c r="D8" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="84">
+        <v>1</v>
+      </c>
+      <c r="F8" s="80"/>
     </row>
     <row r="9" ht="21" spans="1:6">
-      <c r="A9" s="62">
-        <v>8</v>
-      </c>
-      <c r="B9" s="81" t="s">
+      <c r="A9" s="66">
+        <v>8</v>
+      </c>
+      <c r="B9" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="78">
-        <v>1</v>
-      </c>
-      <c r="F9" s="76"/>
+      <c r="D9" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="82">
+        <v>1</v>
+      </c>
+      <c r="F9" s="80"/>
     </row>
     <row r="10" ht="21" spans="1:6">
-      <c r="A10" s="62">
+      <c r="A10" s="66">
         <v>9</v>
       </c>
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="D10" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="78">
-        <v>1</v>
-      </c>
-      <c r="F10" s="76"/>
+      <c r="D10" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="82">
+        <v>1</v>
+      </c>
+      <c r="F10" s="80"/>
     </row>
     <row r="11" ht="21" spans="1:6">
-      <c r="A11" s="62">
+      <c r="A11" s="66">
         <v>10</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="83">
+      <c r="D11" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="87">
         <v>5</v>
       </c>
-      <c r="F11" s="76"/>
+      <c r="F11" s="80"/>
     </row>
     <row r="12" ht="21" spans="1:6">
-      <c r="A12" s="62">
+      <c r="A12" s="66">
         <v>11</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="83">
+      <c r="D12" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="87">
         <v>5</v>
       </c>
-      <c r="F12" s="76"/>
+      <c r="F12" s="80"/>
     </row>
     <row r="13" ht="21" spans="1:6">
-      <c r="A13" s="62">
+      <c r="A13" s="66">
         <v>15</v>
       </c>
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="79" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="C13" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="85">
-        <v>1</v>
-      </c>
-      <c r="F13" s="76"/>
+      <c r="D13" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="89">
+        <v>1</v>
+      </c>
+      <c r="F13" s="80"/>
     </row>
     <row r="14" ht="21" spans="1:6">
-      <c r="A14" s="62">
+      <c r="A14" s="66">
         <v>16</v>
       </c>
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="85">
-        <v>1</v>
-      </c>
-      <c r="F14" s="76"/>
+      <c r="D14" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="89">
+        <v>1</v>
+      </c>
+      <c r="F14" s="80"/>
     </row>
     <row r="15" ht="21" spans="1:6">
-      <c r="A15" s="62">
+      <c r="A15" s="66">
         <v>17</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="80">
-        <v>1</v>
-      </c>
-      <c r="F15" s="76"/>
+      <c r="D15" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="84">
+        <v>1</v>
+      </c>
+      <c r="F15" s="80"/>
     </row>
     <row r="16" ht="21" spans="1:6">
-      <c r="A16" s="62">
+      <c r="A16" s="66">
         <v>18</v>
       </c>
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="78">
-        <v>1</v>
-      </c>
-      <c r="F16" s="76"/>
+      <c r="D16" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="82">
+        <v>1</v>
+      </c>
+      <c r="F16" s="80"/>
     </row>
     <row r="17" ht="21" spans="1:6">
-      <c r="A17" s="62">
+      <c r="A17" s="66">
         <v>19</v>
       </c>
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="78">
-        <v>1</v>
-      </c>
-      <c r="F17" s="76"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="82">
+        <v>1</v>
+      </c>
+      <c r="F17" s="80"/>
     </row>
     <row r="18" ht="21" spans="1:6">
-      <c r="A18" s="62">
+      <c r="A18" s="66">
         <v>20</v>
       </c>
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="77" t="s">
+      <c r="C18" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="78">
-        <v>1</v>
-      </c>
-      <c r="F18" s="76"/>
+      <c r="D18" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="82">
+        <v>1</v>
+      </c>
+      <c r="F18" s="80"/>
     </row>
     <row r="19" ht="21" spans="1:6">
-      <c r="A19" s="62">
+      <c r="A19" s="66">
         <v>21</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="80">
+      <c r="D19" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="84">
         <v>3</v>
       </c>
-      <c r="F19" s="76"/>
+      <c r="F19" s="80"/>
     </row>
     <row r="20" ht="42" spans="1:6">
-      <c r="A20" s="62">
+      <c r="A20" s="66">
         <v>22</v>
       </c>
-      <c r="B20" s="114" t="s">
+      <c r="B20" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="80">
-        <v>1</v>
-      </c>
-      <c r="F20" s="76"/>
+      <c r="D20" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="84">
+        <v>1</v>
+      </c>
+      <c r="F20" s="80"/>
     </row>
     <row r="21" ht="42" spans="1:6">
-      <c r="A21" s="62">
+      <c r="A21" s="66">
         <v>23</v>
       </c>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="78"/>
-      <c r="F21" s="76"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="82"/>
+      <c r="F21" s="80"/>
     </row>
     <row r="22" ht="42" spans="1:6">
-      <c r="A22" s="62">
+      <c r="A22" s="66">
         <v>24</v>
       </c>
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="80">
+      <c r="D22" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="84">
         <v>60</v>
       </c>
-      <c r="F22" s="76"/>
+      <c r="F22" s="80"/>
     </row>
     <row r="23" ht="21" spans="1:6">
-      <c r="A23" s="62">
+      <c r="A23" s="66">
         <v>25</v>
       </c>
-      <c r="B23" s="114" t="s">
+      <c r="B23" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="60"/>
-      <c r="D23" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="80">
+      <c r="C23" s="64"/>
+      <c r="D23" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="84">
         <v>4</v>
       </c>
-      <c r="F23" s="76"/>
+      <c r="F23" s="80"/>
     </row>
     <row r="24" ht="21" spans="1:6">
-      <c r="A24" s="62">
+      <c r="A24" s="66">
         <v>26</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="80">
+      <c r="D24" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="84">
         <v>5</v>
       </c>
-      <c r="F24" s="76"/>
+      <c r="F24" s="80"/>
     </row>
     <row r="25" ht="21" spans="1:6">
-      <c r="A25" s="62">
+      <c r="A25" s="66">
         <v>27</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="80">
+      <c r="D25" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="84">
         <v>20</v>
       </c>
-      <c r="F25" s="76"/>
+      <c r="F25" s="80"/>
     </row>
     <row r="26" ht="21" spans="1:6">
-      <c r="A26" s="62">
+      <c r="A26" s="66">
         <v>28</v>
       </c>
-      <c r="B26" s="60" t="s">
+      <c r="B26" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="60"/>
-      <c r="D26" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="83">
+      <c r="C26" s="64"/>
+      <c r="D26" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="87">
         <v>10</v>
       </c>
-      <c r="F26" s="76"/>
+      <c r="F26" s="80"/>
     </row>
     <row r="27" ht="21" spans="1:6">
-      <c r="A27" s="62">
+      <c r="A27" s="66">
         <v>29</v>
       </c>
-      <c r="B27" s="77" t="s">
+      <c r="B27" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="77" t="s">
+      <c r="C27" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="78">
+      <c r="D27" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="82">
         <v>2</v>
       </c>
-      <c r="F27" s="61"/>
+      <c r="F27" s="65"/>
     </row>
     <row r="28" ht="42" spans="1:6">
-      <c r="A28" s="62">
+      <c r="A28" s="66">
         <v>30</v>
       </c>
-      <c r="B28" s="79" t="s">
+      <c r="B28" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="62">
-        <v>1</v>
-      </c>
-      <c r="F28" s="61"/>
+      <c r="D28" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="66">
+        <v>1</v>
+      </c>
+      <c r="F28" s="65"/>
     </row>
     <row r="29" ht="21" spans="1:6">
-      <c r="A29" s="62">
+      <c r="A29" s="66">
         <v>31</v>
       </c>
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="63">
-        <v>1</v>
-      </c>
-      <c r="F29" s="61"/>
+      <c r="D29" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="67">
+        <v>1</v>
+      </c>
+      <c r="F29" s="65"/>
     </row>
     <row r="30" ht="21" spans="1:6">
-      <c r="A30" s="62">
+      <c r="A30" s="66">
         <v>32</v>
       </c>
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="C30" s="76" t="s">
+      <c r="C30" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="D30" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="64">
-        <v>1</v>
-      </c>
-      <c r="F30" s="76"/>
+      <c r="D30" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="68">
+        <v>1</v>
+      </c>
+      <c r="F30" s="80"/>
     </row>
     <row r="31" ht="21" spans="1:6">
-      <c r="A31" s="62">
+      <c r="A31" s="66">
         <v>33</v>
       </c>
-      <c r="B31" s="76" t="s">
+      <c r="B31" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="88" t="s">
+      <c r="C31" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="62">
-        <v>8</v>
-      </c>
-      <c r="F31" s="76"/>
+      <c r="D31" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="66">
+        <v>8</v>
+      </c>
+      <c r="F31" s="80"/>
     </row>
     <row r="32" ht="21" spans="1:6">
-      <c r="A32" s="62">
+      <c r="A32" s="66">
         <v>34</v>
       </c>
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="C32" s="89" t="s">
+      <c r="C32" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="62">
+      <c r="D32" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="66">
         <v>9</v>
       </c>
-      <c r="F32" s="76"/>
+      <c r="F32" s="80"/>
     </row>
     <row r="33" ht="21" spans="1:6">
-      <c r="A33" s="62">
+      <c r="A33" s="66">
         <v>35</v>
       </c>
-      <c r="B33" s="76" t="s">
+      <c r="B33" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="C33" s="76" t="s">
+      <c r="C33" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="D33" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="64">
-        <v>1</v>
-      </c>
-      <c r="F33" s="76"/>
+      <c r="D33" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="68">
+        <v>1</v>
+      </c>
+      <c r="F33" s="80"/>
     </row>
     <row r="34" ht="21" spans="1:6">
-      <c r="A34" s="62">
+      <c r="A34" s="66">
         <v>36</v>
       </c>
-      <c r="B34" s="76" t="s">
+      <c r="B34" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="76" t="s">
+      <c r="C34" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="64">
+      <c r="D34" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="68">
         <v>16</v>
       </c>
-      <c r="F34" s="76"/>
+      <c r="F34" s="80"/>
     </row>
     <row r="35" ht="21" spans="1:6">
-      <c r="A35" s="62">
+      <c r="A35" s="66">
         <v>37</v>
       </c>
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="61" t="s">
+      <c r="C35" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="D35" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="63">
+      <c r="D35" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="67">
         <v>6</v>
       </c>
-      <c r="F35" s="61"/>
+      <c r="F35" s="65"/>
     </row>
     <row r="36" ht="21" spans="1:6">
-      <c r="A36" s="62">
+      <c r="A36" s="66">
         <v>38</v>
       </c>
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="61" t="s">
+      <c r="C36" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="63">
+      <c r="D36" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="67">
         <v>6</v>
       </c>
-      <c r="F36" s="61"/>
+      <c r="F36" s="65"/>
     </row>
     <row r="37" ht="21" spans="1:6">
-      <c r="A37" s="62">
+      <c r="A37" s="66">
         <v>39</v>
       </c>
-      <c r="B37" s="61" t="s">
+      <c r="B37" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="63">
+      <c r="D37" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="67">
         <v>4</v>
       </c>
-      <c r="F37" s="61"/>
+      <c r="F37" s="65"/>
     </row>
     <row r="38" ht="21" spans="1:6">
-      <c r="A38" s="62">
+      <c r="A38" s="66">
         <v>40</v>
       </c>
-      <c r="B38" s="61" t="s">
+      <c r="B38" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="61" t="s">
+      <c r="C38" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="63">
+      <c r="D38" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="67">
         <v>4</v>
       </c>
-      <c r="F38" s="61"/>
+      <c r="F38" s="65"/>
     </row>
     <row r="39" ht="21" spans="1:6">
-      <c r="A39" s="62">
+      <c r="A39" s="66">
         <v>41</v>
       </c>
-      <c r="B39" s="61" t="s">
+      <c r="B39" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="61" t="s">
+      <c r="C39" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="D39" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="63">
+      <c r="D39" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="67">
         <v>4</v>
       </c>
-      <c r="F39" s="61"/>
+      <c r="F39" s="65"/>
     </row>
     <row r="40" ht="21" spans="1:6">
-      <c r="A40" s="62">
+      <c r="A40" s="66">
         <v>42</v>
       </c>
-      <c r="B40" s="76" t="s">
+      <c r="B40" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="76" t="s">
+      <c r="C40" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="D40" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="63">
+      <c r="D40" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="67">
         <v>6</v>
       </c>
-      <c r="F40" s="61"/>
+      <c r="F40" s="65"/>
     </row>
     <row r="41" ht="21" spans="1:6">
-      <c r="A41" s="62">
+      <c r="A41" s="66">
         <v>43</v>
       </c>
-      <c r="B41" s="76" t="s">
+      <c r="B41" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="C41" s="61" t="s">
+      <c r="C41" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="63">
+      <c r="D41" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="67">
         <v>3</v>
       </c>
-      <c r="F41" s="61"/>
+      <c r="F41" s="65"/>
     </row>
     <row r="42" ht="21" spans="1:6">
-      <c r="A42" s="62">
+      <c r="A42" s="66">
         <v>44</v>
       </c>
-      <c r="B42" s="76" t="s">
+      <c r="B42" s="80" t="s">
         <v>132</v>
       </c>
-      <c r="C42" s="61" t="s">
+      <c r="C42" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="D42" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="63">
-        <v>1</v>
-      </c>
-      <c r="F42" s="61"/>
+      <c r="D42" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="67">
+        <v>1</v>
+      </c>
+      <c r="F42" s="65"/>
     </row>
     <row r="44" spans="7:9">
-      <c r="G44" s="113" t="s">
+      <c r="G44" s="117" t="s">
         <v>83</v>
       </c>
       <c r="H44" t="s">
@@ -4723,7 +4764,7 @@
       </c>
     </row>
     <row r="45" spans="7:9">
-      <c r="G45" s="113"/>
+      <c r="G45" s="117"/>
       <c r="H45" t="s">
         <v>134</v>
       </c>
@@ -4732,7 +4773,7 @@
       </c>
     </row>
     <row r="46" spans="7:9">
-      <c r="G46" s="113"/>
+      <c r="G46" s="117"/>
       <c r="H46" t="s">
         <v>106</v>
       </c>
@@ -4741,7 +4782,7 @@
       </c>
     </row>
     <row r="47" spans="7:9">
-      <c r="G47" s="113"/>
+      <c r="G47" s="117"/>
       <c r="H47" t="s">
         <v>135</v>
       </c>
@@ -4750,7 +4791,7 @@
       </c>
     </row>
     <row r="48" spans="7:9">
-      <c r="G48" s="113"/>
+      <c r="G48" s="117"/>
       <c r="H48" t="s">
         <v>136</v>
       </c>
@@ -4759,7 +4800,7 @@
       </c>
     </row>
     <row r="49" spans="7:9">
-      <c r="G49" s="113"/>
+      <c r="G49" s="117"/>
       <c r="H49" t="s">
         <v>137</v>
       </c>
@@ -5082,832 +5123,832 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="6.71296296296296" style="56" customWidth="1"/>
-    <col min="2" max="2" width="53.712962962963" style="56" customWidth="1"/>
-    <col min="3" max="3" width="31.1388888888889" style="56" customWidth="1"/>
-    <col min="4" max="4" width="9.71296296296296" style="56" customWidth="1"/>
-    <col min="5" max="5" width="16.8611111111111" style="96" customWidth="1"/>
-    <col min="6" max="6" width="37.1388888888889" style="56" customWidth="1"/>
-    <col min="7" max="7" width="9.13888888888889" style="56"/>
-    <col min="8" max="8" width="24.5740740740741" style="56" customWidth="1"/>
-    <col min="9" max="9" width="38.4259259259259" style="56" customWidth="1"/>
-    <col min="10" max="10" width="33.8611111111111" style="56" customWidth="1"/>
-    <col min="11" max="11" width="3" style="56" customWidth="1"/>
-    <col min="12" max="12" width="36" style="56" customWidth="1"/>
-    <col min="13" max="13" width="3" style="56" customWidth="1"/>
-    <col min="14" max="16384" width="9.13888888888889" style="56"/>
+    <col min="1" max="1" width="6.71296296296296" style="60" customWidth="1"/>
+    <col min="2" max="2" width="53.712962962963" style="60" customWidth="1"/>
+    <col min="3" max="3" width="31.1388888888889" style="60" customWidth="1"/>
+    <col min="4" max="4" width="9.71296296296296" style="60" customWidth="1"/>
+    <col min="5" max="5" width="16.8611111111111" style="100" customWidth="1"/>
+    <col min="6" max="6" width="37.1388888888889" style="60" customWidth="1"/>
+    <col min="7" max="7" width="9.13888888888889" style="60"/>
+    <col min="8" max="8" width="24.5740740740741" style="60" customWidth="1"/>
+    <col min="9" max="9" width="38.4259259259259" style="60" customWidth="1"/>
+    <col min="10" max="10" width="33.8611111111111" style="60" customWidth="1"/>
+    <col min="11" max="11" width="3" style="60" customWidth="1"/>
+    <col min="12" max="12" width="36" style="60" customWidth="1"/>
+    <col min="13" max="13" width="3" style="60" customWidth="1"/>
+    <col min="14" max="16384" width="9.13888888888889" style="60"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" spans="1:14">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="97" t="s">
+      <c r="B1" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="110"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="114"/>
     </row>
     <row r="2" ht="21" spans="1:13">
-      <c r="A2" s="32">
-        <v>1</v>
-      </c>
-      <c r="B2" s="99" t="s">
+      <c r="A2" s="36">
+        <v>1</v>
+      </c>
+      <c r="B2" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="32">
-        <v>1</v>
-      </c>
-      <c r="F2" s="61"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="65" t="s">
+      <c r="D2" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="36">
+        <v>1</v>
+      </c>
+      <c r="F2" s="65"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="65" t="s">
+      <c r="J2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="66">
-        <v>1</v>
-      </c>
-      <c r="L2" s="65" t="s">
+      <c r="K2" s="70">
+        <v>1</v>
+      </c>
+      <c r="L2" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="67">
+      <c r="M2" s="71">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="21" spans="1:13">
-      <c r="A3" s="32">
+      <c r="A3" s="36">
         <v>2</v>
       </c>
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="32">
+      <c r="D3" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="36">
         <v>5</v>
       </c>
-      <c r="F3" s="61"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="65" t="s">
+      <c r="F3" s="65"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="69" t="s">
         <v>194</v>
       </c>
-      <c r="J3" s="65" t="s">
+      <c r="J3" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="67">
+      <c r="K3" s="71">
         <v>2</v>
       </c>
-      <c r="L3" s="65" t="s">
+      <c r="L3" s="69" t="s">
         <v>195</v>
       </c>
-      <c r="M3" s="67">
+      <c r="M3" s="71">
         <v>4</v>
       </c>
     </row>
     <row r="4" ht="21" spans="1:13">
-      <c r="A4" s="32">
+      <c r="A4" s="36">
         <v>3</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="106" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="32">
-        <v>1</v>
-      </c>
-      <c r="F4" s="61"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="65" t="s">
+      <c r="D4" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="36">
+        <v>1</v>
+      </c>
+      <c r="F4" s="65"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="69" t="s">
         <v>196</v>
       </c>
-      <c r="M4" s="67">
+      <c r="M4" s="71">
         <v>2</v>
       </c>
     </row>
     <row r="5" ht="42" spans="1:13">
-      <c r="A5" s="32">
+      <c r="A5" s="36">
         <v>4</v>
       </c>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="106" t="s">
         <v>197</v>
       </c>
-      <c r="C5" s="100" t="s">
+      <c r="C5" s="104" t="s">
         <v>198</v>
       </c>
-      <c r="D5" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="32">
+      <c r="D5" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="36">
         <v>2</v>
       </c>
-      <c r="F5" s="61"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="65" t="s">
+      <c r="F5" s="65"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="69" t="s">
         <v>199</v>
       </c>
-      <c r="M5" s="67">
+      <c r="M5" s="71">
         <v>2</v>
       </c>
     </row>
     <row r="6" ht="42" spans="1:13">
-      <c r="A6" s="32">
+      <c r="A6" s="36">
         <v>5</v>
       </c>
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="103" t="s">
         <v>200</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="D6" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="41">
-        <v>1</v>
-      </c>
-      <c r="F6" s="61"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="65" t="s">
+      <c r="D6" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="45">
+        <v>1</v>
+      </c>
+      <c r="F6" s="65"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="J6" s="65" t="s">
+      <c r="J6" s="69" t="s">
         <v>203</v>
       </c>
-      <c r="K6" s="67">
+      <c r="K6" s="71">
         <v>4</v>
       </c>
-      <c r="L6" s="65" t="s">
+      <c r="L6" s="69" t="s">
         <v>204</v>
       </c>
-      <c r="M6" s="67">
+      <c r="M6" s="71">
         <v>4</v>
       </c>
     </row>
     <row r="7" ht="21" spans="1:13">
-      <c r="A7" s="32">
+      <c r="A7" s="36">
         <v>6</v>
       </c>
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="103" t="s">
+      <c r="C7" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="32">
-        <v>1</v>
-      </c>
-      <c r="F7" s="61"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="65" t="s">
+      <c r="D7" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="36">
+        <v>1</v>
+      </c>
+      <c r="F7" s="65"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="69" t="s">
         <v>205</v>
       </c>
-      <c r="M7" s="67">
+      <c r="M7" s="71">
         <v>2</v>
       </c>
     </row>
     <row r="8" ht="42" spans="1:13">
-      <c r="A8" s="32">
+      <c r="A8" s="36">
         <v>7</v>
       </c>
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="104" t="s">
+      <c r="C8" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="32">
-        <v>1</v>
-      </c>
-      <c r="F8" s="61"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="65" t="s">
+      <c r="D8" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="36">
+        <v>1</v>
+      </c>
+      <c r="F8" s="65"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="69" t="s">
         <v>206</v>
       </c>
-      <c r="J8" s="65" t="s">
+      <c r="J8" s="69" t="s">
         <v>207</v>
       </c>
-      <c r="K8" s="66">
+      <c r="K8" s="70">
         <v>2</v>
       </c>
-      <c r="L8" s="65"/>
-      <c r="M8" s="67"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="71"/>
     </row>
     <row r="9" ht="21" spans="1:13">
-      <c r="A9" s="32">
+      <c r="A9" s="36">
         <v>11</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="55">
+      <c r="D9" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="59">
         <v>5</v>
       </c>
-      <c r="F9" s="61"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="67"/>
+      <c r="F9" s="65"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="71"/>
     </row>
     <row r="10" ht="21" spans="1:13">
-      <c r="A10" s="32">
+      <c r="A10" s="36">
         <v>12</v>
       </c>
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="49">
+      <c r="D10" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="53">
         <v>5</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="111" t="s">
+      <c r="F10" s="65"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="115" t="s">
         <v>208</v>
       </c>
-      <c r="J10" s="111"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="67"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="71"/>
     </row>
     <row r="11" ht="21" spans="1:13">
-      <c r="A11" s="32">
+      <c r="A11" s="36">
         <v>13</v>
       </c>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="106" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="84" t="s">
+      <c r="C11" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="52">
-        <v>1</v>
-      </c>
-      <c r="F11" s="61"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="65" t="s">
+      <c r="D11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="56">
+        <v>1</v>
+      </c>
+      <c r="F11" s="65"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="69" t="s">
         <v>209</v>
       </c>
-      <c r="M11" s="67">
+      <c r="M11" s="71">
         <v>6</v>
       </c>
     </row>
     <row r="12" ht="21" spans="1:13">
-      <c r="A12" s="32">
+      <c r="A12" s="36">
         <v>14</v>
       </c>
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="103" t="s">
         <v>210</v>
       </c>
-      <c r="C12" s="84" t="s">
+      <c r="C12" s="88" t="s">
         <v>211</v>
       </c>
-      <c r="D12" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="52">
-        <v>1</v>
-      </c>
-      <c r="F12" s="61"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="65" t="s">
+      <c r="D12" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="56">
+        <v>1</v>
+      </c>
+      <c r="F12" s="65"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="69" t="s">
         <v>212</v>
       </c>
-      <c r="J12" s="65" t="s">
+      <c r="J12" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="67">
-        <v>1</v>
-      </c>
-      <c r="L12" s="65"/>
-      <c r="M12" s="67"/>
+      <c r="K12" s="71">
+        <v>1</v>
+      </c>
+      <c r="L12" s="69"/>
+      <c r="M12" s="71"/>
     </row>
     <row r="13" ht="21" spans="1:13">
-      <c r="A13" s="32">
+      <c r="A13" s="36">
         <v>15</v>
       </c>
-      <c r="B13" s="104" t="s">
+      <c r="B13" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="104" t="s">
+      <c r="C13" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="38">
-        <v>1</v>
-      </c>
-      <c r="F13" s="61"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="65" t="s">
+      <c r="D13" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="42">
+        <v>1</v>
+      </c>
+      <c r="F13" s="65"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="69" t="s">
         <v>213</v>
       </c>
-      <c r="J13" s="65" t="s">
+      <c r="J13" s="69" t="s">
         <v>214</v>
       </c>
-      <c r="K13" s="67">
+      <c r="K13" s="71">
         <v>4</v>
       </c>
-      <c r="L13" s="65" t="s">
+      <c r="L13" s="69" t="s">
         <v>215</v>
       </c>
-      <c r="M13" s="67">
+      <c r="M13" s="71">
         <v>4</v>
       </c>
     </row>
     <row r="14" ht="21" spans="1:13">
-      <c r="A14" s="32">
+      <c r="A14" s="36">
         <v>16</v>
       </c>
-      <c r="B14" s="106" t="s">
+      <c r="B14" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="107" t="s">
+      <c r="C14" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="41">
-        <v>1</v>
-      </c>
-      <c r="F14" s="61"/>
-      <c r="H14" s="92" t="s">
+      <c r="D14" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="45">
+        <v>1</v>
+      </c>
+      <c r="F14" s="65"/>
+      <c r="H14" s="96" t="s">
         <v>216</v>
       </c>
-      <c r="I14" s="92"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="112">
+      <c r="I14" s="96"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="116">
         <f>SUM(K2:K13)</f>
         <v>14</v>
       </c>
-      <c r="L14" s="95"/>
-      <c r="M14" s="94">
+      <c r="L14" s="99"/>
+      <c r="M14" s="98">
         <f>SUM(M2:M13)</f>
         <v>25</v>
       </c>
     </row>
     <row r="15" ht="21" spans="1:6">
-      <c r="A15" s="32">
+      <c r="A15" s="36">
         <v>17</v>
       </c>
-      <c r="B15" s="106" t="s">
+      <c r="B15" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="107"/>
-      <c r="D15" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="41">
-        <v>1</v>
-      </c>
-      <c r="F15" s="61"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="45">
+        <v>1</v>
+      </c>
+      <c r="F15" s="65"/>
     </row>
     <row r="16" ht="21" spans="1:6">
-      <c r="A16" s="32">
+      <c r="A16" s="36">
         <v>18</v>
       </c>
-      <c r="B16" s="106" t="s">
+      <c r="B16" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="107" t="s">
+      <c r="C16" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="41">
-        <v>1</v>
-      </c>
-      <c r="F16" s="61"/>
+      <c r="D16" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="45">
+        <v>1</v>
+      </c>
+      <c r="F16" s="65"/>
     </row>
     <row r="17" ht="21" spans="1:6">
-      <c r="A17" s="32">
+      <c r="A17" s="36">
         <v>19</v>
       </c>
-      <c r="B17" s="105" t="s">
+      <c r="B17" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="108" t="s">
+      <c r="C17" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="38">
+      <c r="D17" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="42">
         <v>3</v>
       </c>
-      <c r="F17" s="61"/>
+      <c r="F17" s="65"/>
     </row>
     <row r="18" ht="42" spans="1:6">
-      <c r="A18" s="32">
+      <c r="A18" s="36">
         <v>20</v>
       </c>
-      <c r="B18" s="99" t="s">
+      <c r="B18" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="108" t="s">
+      <c r="C18" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="38">
-        <v>1</v>
-      </c>
-      <c r="F18" s="61"/>
+      <c r="D18" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="42">
+        <v>1</v>
+      </c>
+      <c r="F18" s="65"/>
     </row>
     <row r="19" ht="42" spans="1:10">
-      <c r="A19" s="32">
+      <c r="A19" s="36">
         <v>21</v>
       </c>
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="108" t="s">
+      <c r="C19" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="38">
+      <c r="D19" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="42">
         <v>30</v>
       </c>
-      <c r="F19" s="61"/>
-      <c r="J19" s="56">
+      <c r="F19" s="65"/>
+      <c r="J19" s="60">
         <v>1</v>
       </c>
     </row>
     <row r="20" ht="21" spans="1:6">
-      <c r="A20" s="32">
+      <c r="A20" s="36">
         <v>22</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="108"/>
-      <c r="D20" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="38">
+      <c r="C20" s="112"/>
+      <c r="D20" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="42">
         <v>2</v>
       </c>
-      <c r="F20" s="61"/>
+      <c r="F20" s="65"/>
     </row>
     <row r="21" ht="21" spans="1:6">
-      <c r="A21" s="32">
+      <c r="A21" s="36">
         <v>23</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="105" t="s">
+      <c r="C21" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="38">
+      <c r="D21" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="42">
         <v>5</v>
       </c>
-      <c r="F21" s="61"/>
+      <c r="F21" s="65"/>
     </row>
     <row r="22" ht="21" spans="1:6">
-      <c r="A22" s="32">
+      <c r="A22" s="36">
         <v>24</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="105" t="s">
+      <c r="C22" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="38">
+      <c r="D22" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="42">
         <v>15</v>
       </c>
-      <c r="F22" s="61"/>
+      <c r="F22" s="65"/>
     </row>
     <row r="23" ht="21" spans="1:6">
-      <c r="A23" s="32">
+      <c r="A23" s="36">
         <v>25</v>
       </c>
-      <c r="B23" s="105" t="s">
+      <c r="B23" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="105"/>
-      <c r="D23" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="55">
+      <c r="C23" s="109"/>
+      <c r="D23" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="59">
         <v>2</v>
       </c>
-      <c r="F23" s="61"/>
+      <c r="F23" s="65"/>
     </row>
     <row r="24" ht="21" spans="1:6">
-      <c r="A24" s="32">
+      <c r="A24" s="36">
         <v>26</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="58">
-        <v>1</v>
-      </c>
-      <c r="F24" s="61"/>
+      <c r="D24" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="62">
+        <v>1</v>
+      </c>
+      <c r="F24" s="65"/>
     </row>
     <row r="25" ht="21" spans="1:6">
-      <c r="A25" s="32">
+      <c r="A25" s="36">
         <v>27</v>
       </c>
-      <c r="B25" s="109" t="s">
+      <c r="B25" s="113" t="s">
         <v>217</v>
       </c>
-      <c r="C25" s="109" t="s">
+      <c r="C25" s="113" t="s">
         <v>218</v>
       </c>
-      <c r="D25" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="32">
-        <v>1</v>
-      </c>
-      <c r="F25" s="61"/>
+      <c r="D25" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="36">
+        <v>1</v>
+      </c>
+      <c r="F25" s="65"/>
     </row>
     <row r="26" ht="21" spans="1:6">
-      <c r="A26" s="32">
+      <c r="A26" s="36">
         <v>28</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="32">
+      <c r="D26" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="36">
         <v>2</v>
       </c>
-      <c r="F26" s="61"/>
+      <c r="F26" s="65"/>
     </row>
     <row r="27" ht="21" spans="1:6">
-      <c r="A27" s="32">
+      <c r="A27" s="36">
         <v>29</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="D27" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="32">
+      <c r="D27" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="36">
         <v>2</v>
       </c>
-      <c r="F27" s="61"/>
+      <c r="F27" s="65"/>
     </row>
     <row r="28" ht="21" spans="1:6">
-      <c r="A28" s="32">
+      <c r="A28" s="36">
         <v>30</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="C28" s="109" t="s">
+      <c r="C28" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="32">
+      <c r="D28" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="36">
         <v>3</v>
       </c>
-      <c r="F28" s="61"/>
+      <c r="F28" s="65"/>
     </row>
     <row r="29" ht="21" spans="1:6">
-      <c r="A29" s="32">
+      <c r="A29" s="36">
         <v>31</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="D29" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="58">
+      <c r="D29" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="62">
         <v>2</v>
       </c>
-      <c r="F29" s="61"/>
+      <c r="F29" s="65"/>
     </row>
     <row r="30" ht="21" spans="1:6">
-      <c r="A30" s="32">
+      <c r="A30" s="36">
         <v>32</v>
       </c>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="63">
+      <c r="D30" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="67">
         <v>4</v>
       </c>
-      <c r="F30" s="61"/>
+      <c r="F30" s="65"/>
     </row>
     <row r="31" ht="21" spans="1:6">
-      <c r="A31" s="32">
+      <c r="A31" s="36">
         <v>33</v>
       </c>
-      <c r="B31" s="61" t="s">
+      <c r="B31" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="65" t="s">
         <v>223</v>
       </c>
-      <c r="D31" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="63">
+      <c r="D31" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="67">
         <v>2</v>
       </c>
-      <c r="F31" s="61"/>
+      <c r="F31" s="65"/>
     </row>
     <row r="32" ht="21" spans="1:6">
-      <c r="A32" s="32">
+      <c r="A32" s="36">
         <v>34</v>
       </c>
-      <c r="B32" s="61" t="s">
+      <c r="B32" s="65" t="s">
         <v>224</v>
       </c>
-      <c r="C32" s="61" t="s">
+      <c r="C32" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="D32" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="63">
+      <c r="D32" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="67">
         <v>2</v>
       </c>
-      <c r="F32" s="61"/>
+      <c r="F32" s="65"/>
     </row>
     <row r="33" ht="21" spans="1:6">
-      <c r="A33" s="32">
+      <c r="A33" s="36">
         <v>35</v>
       </c>
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="D33" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="63">
+      <c r="D33" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="67">
         <v>4</v>
       </c>
-      <c r="F33" s="61"/>
+      <c r="F33" s="65"/>
     </row>
     <row r="34" ht="21" spans="1:6">
-      <c r="A34" s="32">
+      <c r="A34" s="36">
         <v>36</v>
       </c>
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="65" t="s">
         <v>226</v>
       </c>
-      <c r="C34" s="61" t="s">
+      <c r="C34" s="65" t="s">
         <v>227</v>
       </c>
-      <c r="D34" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="63">
+      <c r="D34" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="67">
         <v>2</v>
       </c>
-      <c r="F34" s="61"/>
+      <c r="F34" s="65"/>
     </row>
     <row r="35" ht="21" spans="1:6">
-      <c r="A35" s="32">
+      <c r="A35" s="36">
         <v>37</v>
       </c>
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="65" t="s">
         <v>228</v>
       </c>
-      <c r="C35" s="61" t="s">
+      <c r="C35" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="D35" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="63">
+      <c r="D35" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="67">
         <v>6</v>
       </c>
-      <c r="F35" s="61"/>
+      <c r="F35" s="65"/>
     </row>
     <row r="36" ht="21" spans="1:6">
-      <c r="A36" s="32">
+      <c r="A36" s="36">
         <v>38</v>
       </c>
-      <c r="B36" s="77" t="s">
+      <c r="B36" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="77" t="s">
+      <c r="C36" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="62">
+      <c r="D36" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="66">
         <v>4</v>
       </c>
-      <c r="F36" s="61"/>
+      <c r="F36" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5942,1018 +5983,1018 @@
   </cols>
   <sheetData>
     <row r="1" ht="20.4" spans="1:6">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="73" t="s">
+      <c r="B1" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="77" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="21" spans="1:14">
-      <c r="A2" s="62">
-        <v>1</v>
-      </c>
-      <c r="B2" s="74" t="s">
+      <c r="A2" s="66">
+        <v>1</v>
+      </c>
+      <c r="B2" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="62">
-        <v>1</v>
-      </c>
-      <c r="F2" s="76"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="65" t="s">
+      <c r="D2" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="66">
+        <v>1</v>
+      </c>
+      <c r="F2" s="80"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="65" t="s">
+      <c r="K2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="66">
-        <v>1</v>
-      </c>
-      <c r="M2" s="65" t="s">
+      <c r="L2" s="70">
+        <v>1</v>
+      </c>
+      <c r="M2" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="67">
+      <c r="N2" s="71">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="21" spans="1:14">
-      <c r="A3" s="62">
+      <c r="A3" s="66">
         <v>2</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="62">
+      <c r="D3" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="66">
         <v>4</v>
       </c>
-      <c r="F3" s="76"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="65" t="s">
+      <c r="F3" s="80"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="69" t="s">
         <v>230</v>
       </c>
-      <c r="K3" s="65" t="s">
+      <c r="K3" s="69" t="s">
         <v>231</v>
       </c>
-      <c r="L3" s="66">
+      <c r="L3" s="70">
         <v>10</v>
       </c>
-      <c r="M3" s="65" t="s">
+      <c r="M3" s="69" t="s">
         <v>232</v>
       </c>
-      <c r="N3" s="67">
+      <c r="N3" s="71">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="21" spans="1:14">
-      <c r="A4" s="62">
+      <c r="A4" s="66">
         <v>3</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="62">
-        <v>1</v>
-      </c>
-      <c r="F4" s="76"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="65" t="s">
+      <c r="D4" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="66">
+        <v>1</v>
+      </c>
+      <c r="F4" s="80"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="69" t="s">
         <v>233</v>
       </c>
-      <c r="N4" s="67">
+      <c r="N4" s="71">
         <v>5</v>
       </c>
     </row>
     <row r="5" ht="42" spans="1:14">
-      <c r="A5" s="62">
+      <c r="A5" s="66">
         <v>4</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="78">
-        <v>1</v>
-      </c>
-      <c r="F5" s="76"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="65" t="s">
+      <c r="D5" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="82">
+        <v>1</v>
+      </c>
+      <c r="F5" s="80"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="69" t="s">
         <v>234</v>
       </c>
-      <c r="N5" s="67">
+      <c r="N5" s="71">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="21" spans="1:14">
-      <c r="A6" s="62">
+      <c r="A6" s="66">
         <v>5</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="62">
-        <v>1</v>
-      </c>
-      <c r="F6" s="76"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="65" t="s">
+      <c r="D6" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="66">
+        <v>1</v>
+      </c>
+      <c r="F6" s="80"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="69" t="s">
         <v>235</v>
       </c>
-      <c r="K6" s="65" t="s">
+      <c r="K6" s="69" t="s">
         <v>231</v>
       </c>
-      <c r="L6" s="66">
+      <c r="L6" s="70">
         <v>10</v>
       </c>
-      <c r="M6" s="65" t="s">
+      <c r="M6" s="69" t="s">
         <v>236</v>
       </c>
-      <c r="N6" s="66">
+      <c r="N6" s="70">
         <v>10</v>
       </c>
     </row>
     <row r="7" ht="21" spans="1:14">
-      <c r="A7" s="62">
+      <c r="A7" s="66">
         <v>6</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="62">
-        <v>1</v>
-      </c>
-      <c r="F7" s="62"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="65" t="s">
+      <c r="D7" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="66">
+        <v>1</v>
+      </c>
+      <c r="F7" s="66"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="69" t="s">
         <v>237</v>
       </c>
-      <c r="N7" s="66">
+      <c r="N7" s="70">
         <v>2</v>
       </c>
     </row>
     <row r="8" ht="21" spans="1:14">
-      <c r="A8" s="62">
+      <c r="A8" s="66">
         <v>7</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="80">
-        <v>1</v>
-      </c>
-      <c r="F8" s="76"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="65" t="s">
+      <c r="D8" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="84">
+        <v>1</v>
+      </c>
+      <c r="F8" s="80"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="69" t="s">
         <v>238</v>
       </c>
-      <c r="K8" s="65" t="s">
+      <c r="K8" s="69" t="s">
         <v>239</v>
       </c>
-      <c r="L8" s="66">
+      <c r="L8" s="70">
         <v>2</v>
       </c>
-      <c r="M8" s="65" t="s">
+      <c r="M8" s="69" t="s">
         <v>240</v>
       </c>
-      <c r="N8" s="66">
+      <c r="N8" s="70">
         <v>2</v>
       </c>
     </row>
     <row r="9" ht="21" spans="1:14">
-      <c r="A9" s="62">
-        <v>8</v>
-      </c>
-      <c r="B9" s="81" t="s">
+      <c r="A9" s="66">
+        <v>8</v>
+      </c>
+      <c r="B9" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="78">
+      <c r="D9" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="82">
         <v>2</v>
       </c>
-      <c r="F9" s="76"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="65" t="s">
+      <c r="F9" s="80"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="69" t="s">
         <v>241</v>
       </c>
-      <c r="K9" s="65" t="s">
+      <c r="K9" s="69" t="s">
         <v>239</v>
       </c>
-      <c r="L9" s="66">
+      <c r="L9" s="70">
         <v>2</v>
       </c>
-      <c r="M9" s="65" t="s">
+      <c r="M9" s="69" t="s">
         <v>240</v>
       </c>
-      <c r="N9" s="66">
+      <c r="N9" s="70">
         <v>2</v>
       </c>
     </row>
     <row r="10" ht="21" spans="1:14">
-      <c r="A10" s="62">
+      <c r="A10" s="66">
         <v>9</v>
       </c>
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="D10" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="78">
+      <c r="D10" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="82">
         <v>3</v>
       </c>
-      <c r="F10" s="76"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="65" t="s">
+      <c r="F10" s="80"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="69" t="s">
         <v>213</v>
       </c>
-      <c r="K10" s="65" t="s">
+      <c r="K10" s="69" t="s">
         <v>203</v>
       </c>
-      <c r="L10" s="66">
+      <c r="L10" s="70">
         <v>4</v>
       </c>
-      <c r="M10" s="65" t="s">
+      <c r="M10" s="69" t="s">
         <v>242</v>
       </c>
-      <c r="N10" s="66">
+      <c r="N10" s="70">
         <v>4</v>
       </c>
     </row>
     <row r="11" ht="21" spans="1:14">
-      <c r="A11" s="62">
+      <c r="A11" s="66">
         <v>13</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="83">
+      <c r="D11" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="87">
         <v>5</v>
       </c>
-      <c r="F11" s="76"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="65" t="s">
+      <c r="F11" s="80"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="69" t="s">
         <v>243</v>
       </c>
-      <c r="K11" s="65"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="65" t="s">
+      <c r="K11" s="69"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="69" t="s">
         <v>244</v>
       </c>
-      <c r="N11" s="66">
+      <c r="N11" s="70">
         <v>9</v>
       </c>
     </row>
     <row r="12" ht="21" spans="1:14">
-      <c r="A12" s="62">
+      <c r="A12" s="66">
         <v>14</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="83">
+      <c r="D12" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="87">
         <v>5</v>
       </c>
-      <c r="F12" s="76"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="65" t="s">
+      <c r="F12" s="80"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="69" t="s">
         <v>245</v>
       </c>
-      <c r="K12" s="65" t="s">
+      <c r="K12" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="L12" s="66">
-        <v>1</v>
-      </c>
-      <c r="M12" s="65" t="s">
+      <c r="L12" s="70">
+        <v>1</v>
+      </c>
+      <c r="M12" s="69" t="s">
         <v>246</v>
       </c>
-      <c r="N12" s="67"/>
+      <c r="N12" s="71"/>
     </row>
     <row r="13" ht="21" spans="1:14">
-      <c r="A13" s="62">
+      <c r="A13" s="66">
         <v>15</v>
       </c>
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="79" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="C13" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="85">
-        <v>1</v>
-      </c>
-      <c r="F13" s="76"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="65" t="s">
+      <c r="D13" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="89">
+        <v>1</v>
+      </c>
+      <c r="F13" s="80"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="69" t="s">
         <v>247</v>
       </c>
-      <c r="K13" s="65" t="s">
+      <c r="K13" s="69" t="s">
         <v>248</v>
       </c>
-      <c r="L13" s="66">
+      <c r="L13" s="70">
         <v>2</v>
       </c>
-      <c r="M13" s="65" t="s">
+      <c r="M13" s="69" t="s">
         <v>240</v>
       </c>
-      <c r="N13" s="66">
+      <c r="N13" s="70">
         <v>2</v>
       </c>
     </row>
     <row r="14" ht="21" spans="1:14">
-      <c r="A14" s="62">
+      <c r="A14" s="66">
         <v>16</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="78" t="s">
         <v>210</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="88" t="s">
         <v>211</v>
       </c>
-      <c r="D14" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="85">
-        <v>1</v>
-      </c>
-      <c r="F14" s="76"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="65" t="s">
+      <c r="D14" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="89">
+        <v>1</v>
+      </c>
+      <c r="F14" s="80"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="69" t="s">
         <v>249</v>
       </c>
-      <c r="K14" s="65" t="s">
+      <c r="K14" s="69" t="s">
         <v>250</v>
       </c>
-      <c r="L14" s="66">
-        <v>8</v>
-      </c>
-      <c r="M14" s="65" t="s">
+      <c r="L14" s="70">
+        <v>8</v>
+      </c>
+      <c r="M14" s="69" t="s">
         <v>251</v>
       </c>
-      <c r="N14" s="66">
+      <c r="N14" s="70">
         <v>8</v>
       </c>
     </row>
     <row r="15" ht="21" spans="1:14">
-      <c r="A15" s="62">
+      <c r="A15" s="66">
         <v>17</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="80">
-        <v>1</v>
-      </c>
-      <c r="F15" s="76"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="67"/>
+      <c r="D15" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="84">
+        <v>1</v>
+      </c>
+      <c r="F15" s="80"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="71"/>
     </row>
     <row r="16" ht="21" spans="1:14">
-      <c r="A16" s="62">
+      <c r="A16" s="66">
         <v>18</v>
       </c>
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="78">
-        <v>1</v>
-      </c>
-      <c r="F16" s="76"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="66"/>
+      <c r="D16" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="82">
+        <v>1</v>
+      </c>
+      <c r="F16" s="80"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="70"/>
     </row>
     <row r="17" ht="21" spans="1:14">
-      <c r="A17" s="62">
+      <c r="A17" s="66">
         <v>19</v>
       </c>
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="78">
-        <v>1</v>
-      </c>
-      <c r="F17" s="76"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="65" t="s">
+      <c r="C17" s="81"/>
+      <c r="D17" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="82">
+        <v>1</v>
+      </c>
+      <c r="F17" s="80"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="69" t="s">
         <v>252</v>
       </c>
-      <c r="K17" s="65" t="s">
+      <c r="K17" s="69" t="s">
         <v>203</v>
       </c>
-      <c r="L17" s="66">
+      <c r="L17" s="70">
         <v>4</v>
       </c>
-      <c r="M17" s="65" t="s">
+      <c r="M17" s="69" t="s">
         <v>253</v>
       </c>
-      <c r="N17" s="66">
+      <c r="N17" s="70">
         <v>4</v>
       </c>
     </row>
     <row r="18" ht="21" spans="1:14">
-      <c r="A18" s="62">
+      <c r="A18" s="66">
         <v>20</v>
       </c>
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="77" t="s">
+      <c r="C18" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="78">
-        <v>1</v>
-      </c>
-      <c r="F18" s="76"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="65" t="s">
+      <c r="D18" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="82">
+        <v>1</v>
+      </c>
+      <c r="F18" s="80"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="69" t="s">
         <v>254</v>
       </c>
-      <c r="K18" s="65" t="s">
+      <c r="K18" s="69" t="s">
         <v>203</v>
       </c>
-      <c r="L18" s="66">
+      <c r="L18" s="70">
         <v>4</v>
       </c>
-      <c r="M18" s="65" t="s">
+      <c r="M18" s="69" t="s">
         <v>253</v>
       </c>
-      <c r="N18" s="66">
+      <c r="N18" s="70">
         <v>4</v>
       </c>
     </row>
     <row r="19" ht="21" spans="1:14">
-      <c r="A19" s="62">
+      <c r="A19" s="66">
         <v>21</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="80">
+      <c r="D19" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="84">
         <v>3</v>
       </c>
-      <c r="F19" s="76"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="91"/>
-      <c r="N19" s="67"/>
+      <c r="F19" s="80"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="71"/>
     </row>
     <row r="20" ht="21" spans="1:14">
-      <c r="A20" s="62">
+      <c r="A20" s="66">
         <v>22</v>
       </c>
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="80">
-        <v>1</v>
-      </c>
-      <c r="F20" s="76"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="91"/>
-      <c r="N20" s="67"/>
+      <c r="D20" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="84">
+        <v>1</v>
+      </c>
+      <c r="F20" s="80"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="71"/>
     </row>
     <row r="21" ht="21" spans="1:14">
-      <c r="A21" s="62">
+      <c r="A21" s="66">
         <v>23</v>
       </c>
-      <c r="B21" s="75" t="s">
+      <c r="B21" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="80">
+      <c r="D21" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="84">
         <v>80</v>
       </c>
-      <c r="F21" s="76"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="65" t="s">
+      <c r="F21" s="80"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="69" t="s">
         <v>255</v>
       </c>
-      <c r="K21" s="65" t="s">
+      <c r="K21" s="69" t="s">
         <v>203</v>
       </c>
-      <c r="L21" s="66">
+      <c r="L21" s="70">
         <v>4</v>
       </c>
-      <c r="M21" s="65" t="s">
+      <c r="M21" s="69" t="s">
         <v>253</v>
       </c>
-      <c r="N21" s="66">
+      <c r="N21" s="70">
         <v>4</v>
       </c>
     </row>
     <row r="22" ht="21" spans="1:14">
-      <c r="A22" s="62">
+      <c r="A22" s="66">
         <v>24</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="80">
+      <c r="C22" s="64"/>
+      <c r="D22" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="84">
         <v>4</v>
       </c>
-      <c r="F22" s="76"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="65" t="s">
+      <c r="F22" s="80"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="69" t="s">
         <v>256</v>
       </c>
-      <c r="N22" s="66">
+      <c r="N22" s="70">
         <v>4</v>
       </c>
     </row>
     <row r="23" ht="21" spans="1:14">
-      <c r="A23" s="62">
+      <c r="A23" s="66">
         <v>25</v>
       </c>
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="80">
+      <c r="D23" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="84">
         <v>5</v>
       </c>
-      <c r="F23" s="76"/>
-      <c r="I23" s="92" t="s">
+      <c r="F23" s="80"/>
+      <c r="I23" s="96" t="s">
         <v>216</v>
       </c>
-      <c r="J23" s="92"/>
-      <c r="K23" s="93"/>
-      <c r="L23" s="94">
+      <c r="J23" s="96"/>
+      <c r="K23" s="97"/>
+      <c r="L23" s="98">
         <f>SUM(L2:L22)</f>
         <v>52</v>
       </c>
-      <c r="M23" s="95"/>
-      <c r="N23" s="94">
+      <c r="M23" s="99"/>
+      <c r="N23" s="98">
         <f>SUM(N2:N22)</f>
         <v>76</v>
       </c>
     </row>
     <row r="24" ht="21" spans="1:6">
-      <c r="A24" s="62">
+      <c r="A24" s="66">
         <v>26</v>
       </c>
-      <c r="B24" s="86" t="s">
+      <c r="B24" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="80">
+      <c r="D24" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="84">
         <v>20</v>
       </c>
-      <c r="F24" s="76"/>
+      <c r="F24" s="80"/>
     </row>
     <row r="25" ht="21" spans="1:6">
-      <c r="A25" s="62">
+      <c r="A25" s="66">
         <v>27</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="60"/>
-      <c r="D25" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="83">
+      <c r="C25" s="64"/>
+      <c r="D25" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="87">
         <v>10</v>
       </c>
-      <c r="F25" s="76"/>
+      <c r="F25" s="80"/>
     </row>
     <row r="26" ht="21" spans="1:6">
-      <c r="A26" s="62">
+      <c r="A26" s="66">
         <v>28</v>
       </c>
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="77" t="s">
+      <c r="C26" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="78">
-        <v>1</v>
-      </c>
-      <c r="F26" s="76"/>
+      <c r="D26" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="82">
+        <v>1</v>
+      </c>
+      <c r="F26" s="80"/>
     </row>
     <row r="27" ht="21" spans="1:6">
-      <c r="A27" s="62">
+      <c r="A27" s="66">
         <v>29</v>
       </c>
-      <c r="B27" s="87" t="s">
+      <c r="B27" s="91" t="s">
         <v>219</v>
       </c>
-      <c r="C27" s="88" t="s">
+      <c r="C27" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="62">
+      <c r="D27" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="66">
         <v>9</v>
       </c>
-      <c r="F27" s="76"/>
+      <c r="F27" s="80"/>
     </row>
     <row r="28" ht="21" spans="1:6">
-      <c r="A28" s="62">
+      <c r="A28" s="66">
         <v>30</v>
       </c>
-      <c r="B28" s="87" t="s">
+      <c r="B28" s="91" t="s">
         <v>257</v>
       </c>
-      <c r="C28" s="88" t="s">
+      <c r="C28" s="92" t="s">
         <v>220</v>
       </c>
-      <c r="D28" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="62">
+      <c r="D28" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="66">
         <v>2</v>
       </c>
-      <c r="F28" s="76"/>
+      <c r="F28" s="80"/>
     </row>
     <row r="29" ht="21" spans="1:6">
-      <c r="A29" s="62">
+      <c r="A29" s="66">
         <v>31</v>
       </c>
-      <c r="B29" s="87" t="s">
+      <c r="B29" s="91" t="s">
         <v>258</v>
       </c>
-      <c r="C29" s="88" t="s">
+      <c r="C29" s="92" t="s">
         <v>220</v>
       </c>
-      <c r="D29" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="62">
+      <c r="D29" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="66">
         <v>2</v>
       </c>
-      <c r="F29" s="76"/>
+      <c r="F29" s="80"/>
     </row>
     <row r="30" ht="21" spans="1:6">
-      <c r="A30" s="62">
+      <c r="A30" s="66">
         <v>32</v>
       </c>
-      <c r="B30" s="87" t="s">
+      <c r="B30" s="91" t="s">
         <v>219</v>
       </c>
-      <c r="C30" s="89" t="s">
+      <c r="C30" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="62">
+      <c r="D30" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="66">
         <v>10</v>
       </c>
-      <c r="F30" s="76"/>
+      <c r="F30" s="80"/>
     </row>
     <row r="31" ht="21" spans="1:6">
-      <c r="A31" s="62">
+      <c r="A31" s="66">
         <v>33</v>
       </c>
-      <c r="B31" s="87" t="s">
+      <c r="B31" s="91" t="s">
         <v>219</v>
       </c>
-      <c r="C31" s="89" t="s">
+      <c r="C31" s="93" t="s">
         <v>259</v>
       </c>
-      <c r="D31" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="62">
+      <c r="D31" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="66">
         <v>2</v>
       </c>
-      <c r="F31" s="76"/>
+      <c r="F31" s="80"/>
     </row>
     <row r="32" ht="21" spans="1:6">
-      <c r="A32" s="62">
+      <c r="A32" s="66">
         <v>34</v>
       </c>
-      <c r="B32" s="60" t="s">
+      <c r="B32" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="76" t="s">
+      <c r="C32" s="80" t="s">
         <v>260</v>
       </c>
-      <c r="D32" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="64">
+      <c r="D32" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="68">
         <v>3</v>
       </c>
-      <c r="F32" s="76"/>
+      <c r="F32" s="80"/>
     </row>
     <row r="33" ht="21" spans="1:6">
-      <c r="A33" s="62">
+      <c r="A33" s="66">
         <v>35</v>
       </c>
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="63">
+      <c r="D33" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="67">
         <v>10</v>
       </c>
-      <c r="F33" s="61"/>
+      <c r="F33" s="65"/>
     </row>
     <row r="34" ht="21" spans="1:6">
-      <c r="A34" s="62">
+      <c r="A34" s="66">
         <v>36</v>
       </c>
-      <c r="B34" s="87" t="s">
+      <c r="B34" s="91" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="61" t="s">
+      <c r="C34" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="62">
+      <c r="D34" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="66">
         <v>5</v>
       </c>
-      <c r="F34" s="61"/>
+      <c r="F34" s="65"/>
     </row>
     <row r="35" ht="21" spans="1:6">
-      <c r="A35" s="62">
+      <c r="A35" s="66">
         <v>37</v>
       </c>
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="65" t="s">
         <v>261</v>
       </c>
-      <c r="C35" s="61" t="s">
+      <c r="C35" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="D35" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="62">
+      <c r="D35" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="66">
         <v>5</v>
       </c>
-      <c r="F35" s="61"/>
+      <c r="F35" s="65"/>
     </row>
     <row r="36" ht="21" spans="1:6">
-      <c r="A36" s="62">
+      <c r="A36" s="66">
         <v>38</v>
       </c>
-      <c r="B36" s="76" t="s">
+      <c r="B36" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="76" t="s">
+      <c r="C36" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="64">
+      <c r="D36" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="68">
         <v>32</v>
       </c>
-      <c r="F36" s="61"/>
+      <c r="F36" s="65"/>
     </row>
     <row r="37" ht="21" spans="1:6">
-      <c r="A37" s="62">
+      <c r="A37" s="66">
         <v>39</v>
       </c>
-      <c r="B37" s="61" t="s">
+      <c r="B37" s="65" t="s">
         <v>262</v>
       </c>
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="65" t="s">
         <v>263</v>
       </c>
-      <c r="D37" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="64">
+      <c r="D37" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="68">
         <v>2</v>
       </c>
-      <c r="F37" s="61"/>
+      <c r="F37" s="65"/>
     </row>
     <row r="38" ht="21" spans="1:6">
-      <c r="A38" s="62">
+      <c r="A38" s="66">
         <v>40</v>
       </c>
-      <c r="B38" s="61" t="s">
+      <c r="B38" s="65" t="s">
         <v>228</v>
       </c>
-      <c r="C38" s="61" t="s">
+      <c r="C38" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="D38" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="64">
+      <c r="D38" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="68">
         <v>9</v>
       </c>
-      <c r="F38" s="61"/>
+      <c r="F38" s="65"/>
     </row>
     <row r="39" ht="21" spans="1:6">
-      <c r="A39" s="62">
+      <c r="A39" s="66">
         <v>41</v>
       </c>
-      <c r="B39" s="61" t="s">
+      <c r="B39" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="61" t="s">
+      <c r="C39" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="D39" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="64">
+      <c r="D39" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="68">
         <v>9</v>
       </c>
-      <c r="F39" s="61"/>
+      <c r="F39" s="65"/>
     </row>
     <row r="40" ht="21" spans="1:6">
-      <c r="A40" s="62">
+      <c r="A40" s="66">
         <v>42</v>
       </c>
-      <c r="B40" s="61" t="s">
+      <c r="B40" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="61" t="s">
+      <c r="C40" s="65" t="s">
         <v>264</v>
       </c>
-      <c r="D40" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="64">
+      <c r="D40" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="68">
         <v>4</v>
       </c>
-      <c r="F40" s="61"/>
+      <c r="F40" s="65"/>
     </row>
     <row r="41" ht="21" spans="1:6">
-      <c r="A41" s="62">
+      <c r="A41" s="66">
         <v>43</v>
       </c>
-      <c r="B41" s="61" t="s">
+      <c r="B41" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="C41" s="61" t="s">
+      <c r="C41" s="65" t="s">
         <v>265</v>
       </c>
-      <c r="D41" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="64">
+      <c r="D41" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="68">
         <v>4</v>
       </c>
-      <c r="F41" s="61"/>
+      <c r="F41" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6987,1059 +7028,1059 @@
   </cols>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:13">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="69" t="s">
         <v>267</v>
       </c>
-      <c r="J1" s="65"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="65" t="s">
+      <c r="J1" s="69"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="69" t="s">
         <v>268</v>
       </c>
-      <c r="M1" s="66">
+      <c r="M1" s="70">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="21" spans="1:13">
-      <c r="A2" s="32">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33" t="s">
+      <c r="A2" s="36">
+        <v>1</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="32">
-        <v>1</v>
-      </c>
-      <c r="F2" s="35"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="65" t="s">
+      <c r="D2" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="36">
+        <v>1</v>
+      </c>
+      <c r="F2" s="39"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="69" t="s">
         <v>269</v>
       </c>
-      <c r="J2" s="65" t="s">
+      <c r="J2" s="69" t="s">
         <v>239</v>
       </c>
-      <c r="K2" s="66">
+      <c r="K2" s="70">
         <v>2</v>
       </c>
-      <c r="L2" s="65" t="s">
+      <c r="L2" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="M2" s="67">
+      <c r="M2" s="71">
         <v>2</v>
       </c>
     </row>
     <row r="3" ht="21" spans="1:13">
-      <c r="A3" s="32">
+      <c r="A3" s="36">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="32">
+      <c r="D3" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="36">
         <v>6</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="H3" s="31" t="s">
+      <c r="F3" s="39"/>
+      <c r="H3" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="I3" s="65" t="s">
+      <c r="I3" s="69" t="s">
         <v>271</v>
       </c>
-      <c r="J3" s="65" t="s">
+      <c r="J3" s="69" t="s">
         <v>239</v>
       </c>
-      <c r="K3" s="66">
+      <c r="K3" s="70">
         <v>2</v>
       </c>
-      <c r="L3" s="65" t="s">
+      <c r="L3" s="69" t="s">
         <v>272</v>
       </c>
-      <c r="M3" s="66">
+      <c r="M3" s="70">
         <v>2</v>
       </c>
     </row>
     <row r="4" ht="42" spans="1:13">
-      <c r="A4" s="32">
+      <c r="A4" s="36">
         <v>3</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="41" t="s">
         <v>274</v>
       </c>
-      <c r="D4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="38">
-        <v>1</v>
-      </c>
-      <c r="F4" s="35"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="65" t="s">
+      <c r="D4" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="42">
+        <v>1</v>
+      </c>
+      <c r="F4" s="39"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="69" t="s">
         <v>275</v>
       </c>
-      <c r="J4" s="65" t="s">
+      <c r="J4" s="69" t="s">
         <v>239</v>
       </c>
-      <c r="K4" s="66">
+      <c r="K4" s="70">
         <v>2</v>
       </c>
-      <c r="L4" s="65" t="s">
+      <c r="L4" s="69" t="s">
         <v>272</v>
       </c>
-      <c r="M4" s="66">
+      <c r="M4" s="70">
         <v>2</v>
       </c>
     </row>
     <row r="5" ht="42" spans="1:13">
-      <c r="A5" s="32">
+      <c r="A5" s="36">
         <v>4</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="41">
-        <v>1</v>
-      </c>
-      <c r="F5" s="35"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="65" t="s">
+      <c r="D5" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="45">
+        <v>1</v>
+      </c>
+      <c r="F5" s="39"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="69" t="s">
         <v>276</v>
       </c>
-      <c r="J5" s="65" t="s">
+      <c r="J5" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="K5" s="66">
-        <v>1</v>
-      </c>
-      <c r="L5" s="65" t="s">
+      <c r="K5" s="70">
+        <v>1</v>
+      </c>
+      <c r="L5" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="66">
+      <c r="M5" s="70">
         <v>1</v>
       </c>
     </row>
     <row r="6" ht="21" spans="1:13">
-      <c r="A6" s="32">
+      <c r="A6" s="36">
         <v>5</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="32">
-        <v>1</v>
-      </c>
-      <c r="F6" s="35"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="65" t="s">
+      <c r="D6" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="36">
+        <v>1</v>
+      </c>
+      <c r="F6" s="39"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="M6" s="66">
+      <c r="M6" s="70">
         <v>1</v>
       </c>
     </row>
     <row r="7" ht="42" spans="1:13">
-      <c r="A7" s="32">
+      <c r="A7" s="36">
         <v>6</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="32">
-        <v>1</v>
-      </c>
-      <c r="F7" s="35"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="67"/>
+      <c r="D7" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="36">
+        <v>1</v>
+      </c>
+      <c r="F7" s="39"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="71"/>
     </row>
     <row r="8" ht="21" spans="1:13">
-      <c r="A8" s="32">
+      <c r="A8" s="36">
         <v>7</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="37" t="s">
         <v>277</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="D8" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="32">
-        <v>1</v>
-      </c>
-      <c r="F8" s="35"/>
-      <c r="H8" s="31" t="s">
+      <c r="D8" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="36">
+        <v>1</v>
+      </c>
+      <c r="F8" s="39"/>
+      <c r="H8" s="35" t="s">
         <v>279</v>
       </c>
-      <c r="I8" s="65" t="s">
+      <c r="I8" s="69" t="s">
         <v>280</v>
       </c>
-      <c r="J8" s="65" t="s">
+      <c r="J8" s="69" t="s">
         <v>281</v>
       </c>
-      <c r="K8" s="66">
+      <c r="K8" s="70">
         <v>2</v>
       </c>
-      <c r="L8" s="65" t="s">
+      <c r="L8" s="69" t="s">
         <v>282</v>
       </c>
-      <c r="M8" s="66">
+      <c r="M8" s="70">
         <v>2</v>
       </c>
     </row>
     <row r="9" ht="21" spans="1:13">
-      <c r="A9" s="32">
-        <v>8</v>
-      </c>
-      <c r="B9" s="44" t="s">
+      <c r="A9" s="36">
+        <v>8</v>
+      </c>
+      <c r="B9" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="41">
-        <v>1</v>
-      </c>
-      <c r="F9" s="35"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="66"/>
+      <c r="D9" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="45">
+        <v>1</v>
+      </c>
+      <c r="F9" s="39"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="70"/>
     </row>
     <row r="10" ht="21" spans="1:13">
-      <c r="A10" s="32">
+      <c r="A10" s="36">
         <v>9</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="D10" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="41">
-        <v>1</v>
-      </c>
-      <c r="F10" s="35"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="65" t="s">
+      <c r="D10" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="45">
+        <v>1</v>
+      </c>
+      <c r="F10" s="39"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="69" t="s">
         <v>283</v>
       </c>
-      <c r="J10" s="65" t="s">
+      <c r="J10" s="69" t="s">
         <v>281</v>
       </c>
-      <c r="K10" s="66">
+      <c r="K10" s="70">
         <v>2</v>
       </c>
-      <c r="L10" s="65" t="s">
+      <c r="L10" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="M10" s="66">
+      <c r="M10" s="70">
         <v>2</v>
       </c>
     </row>
     <row r="11" ht="21" spans="1:13">
-      <c r="A11" s="32">
+      <c r="A11" s="36">
         <v>10</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="38" t="s">
         <v>285</v>
       </c>
-      <c r="D11" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="32">
-        <v>1</v>
-      </c>
-      <c r="F11" s="35"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="65" t="s">
+      <c r="D11" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="36">
+        <v>1</v>
+      </c>
+      <c r="F11" s="39"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="69" t="s">
         <v>286</v>
       </c>
-      <c r="J11" s="65" t="s">
+      <c r="J11" s="69" t="s">
         <v>281</v>
       </c>
-      <c r="K11" s="66">
+      <c r="K11" s="70">
         <v>2</v>
       </c>
-      <c r="L11" s="65" t="s">
+      <c r="L11" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="M11" s="66">
+      <c r="M11" s="70">
         <v>2</v>
       </c>
     </row>
     <row r="12" ht="21" spans="1:13">
-      <c r="A12" s="32">
+      <c r="A12" s="36">
         <v>11</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="37" t="s">
         <v>287</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="38" t="s">
         <v>288</v>
       </c>
-      <c r="D12" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="32">
-        <v>1</v>
-      </c>
-      <c r="F12" s="35" t="s">
+      <c r="D12" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="36">
+        <v>1</v>
+      </c>
+      <c r="F12" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="69" t="s">
+      <c r="H12" s="51"/>
+      <c r="I12" s="73" t="s">
         <v>289</v>
       </c>
-      <c r="J12" s="65"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="67"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="71"/>
     </row>
     <row r="13" ht="42" spans="1:13">
-      <c r="A13" s="32">
+      <c r="A13" s="36">
         <v>12</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="38" t="s">
         <v>291</v>
       </c>
-      <c r="D13" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="32">
-        <v>1</v>
-      </c>
-      <c r="F13" s="35" t="s">
+      <c r="D13" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="36">
+        <v>1</v>
+      </c>
+      <c r="F13" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="H13" s="35" t="s">
         <v>292</v>
       </c>
-      <c r="I13" s="65" t="s">
+      <c r="I13" s="69" t="s">
         <v>293</v>
       </c>
-      <c r="J13" s="65" t="s">
+      <c r="J13" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="K13" s="66">
-        <v>1</v>
-      </c>
-      <c r="L13" s="65" t="s">
+      <c r="K13" s="70">
+        <v>1</v>
+      </c>
+      <c r="L13" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="M13" s="66"/>
+      <c r="M13" s="70"/>
     </row>
     <row r="14" ht="21" spans="1:13">
-      <c r="A14" s="32">
+      <c r="A14" s="36">
         <v>13</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="52" t="s">
         <v>294</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="52" t="s">
         <v>295</v>
       </c>
-      <c r="D14" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="38">
+      <c r="D14" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="42">
         <v>4</v>
       </c>
-      <c r="F14" s="35" t="s">
+      <c r="F14" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="65" t="s">
+      <c r="H14" s="43"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="69" t="s">
         <v>296</v>
       </c>
-      <c r="M14" s="66">
+      <c r="M14" s="70">
         <v>2</v>
       </c>
     </row>
     <row r="15" ht="21" spans="1:13">
-      <c r="A15" s="32">
+      <c r="A15" s="36">
         <v>14</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="52" t="s">
         <v>297</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="52" t="s">
         <v>298</v>
       </c>
-      <c r="D15" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="38">
+      <c r="D15" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="42">
         <v>4</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="68" t="s">
+      <c r="H15" s="43"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="72" t="s">
         <v>299</v>
       </c>
-      <c r="M15" s="67">
+      <c r="M15" s="71">
         <v>2</v>
       </c>
     </row>
     <row r="16" ht="21" spans="1:13">
-      <c r="A16" s="32">
+      <c r="A16" s="36">
         <v>15</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="49">
+      <c r="D16" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="53">
         <v>5</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="65" t="s">
+      <c r="H16" s="43"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="69" t="s">
         <v>300</v>
       </c>
-      <c r="M16" s="66">
+      <c r="M16" s="70">
         <v>1</v>
       </c>
     </row>
     <row r="17" ht="21" spans="1:13">
-      <c r="A17" s="32">
+      <c r="A17" s="36">
         <v>16</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="49">
+      <c r="D17" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="53">
         <v>5</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="65" t="s">
+      <c r="H17" s="43"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="69" t="s">
         <v>301</v>
       </c>
-      <c r="M17" s="66">
+      <c r="M17" s="70">
         <v>1</v>
       </c>
     </row>
     <row r="18" ht="21" spans="1:13">
-      <c r="A18" s="32">
+      <c r="A18" s="36">
         <v>17</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="52">
-        <v>1</v>
-      </c>
-      <c r="F18" s="35" t="s">
+      <c r="D18" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="56">
+        <v>1</v>
+      </c>
+      <c r="F18" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="36"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="67">
+      <c r="H18" s="40"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="71">
         <v>2</v>
       </c>
-      <c r="L18" s="65" t="s">
+      <c r="L18" s="69" t="s">
         <v>302</v>
       </c>
-      <c r="M18" s="67">
+      <c r="M18" s="71">
         <v>1</v>
       </c>
     </row>
     <row r="19" ht="21" spans="1:13">
-      <c r="A19" s="32">
+      <c r="A19" s="36">
         <v>18</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="D19" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="52">
-        <v>1</v>
-      </c>
-      <c r="F19" s="35" t="s">
+      <c r="D19" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="56">
+        <v>1</v>
+      </c>
+      <c r="F19" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="53" t="s">
+      <c r="H19" s="57" t="s">
         <v>216</v>
       </c>
-      <c r="I19" s="70"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="72">
+      <c r="I19" s="74"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="76">
         <f>SUM(K1:K18)</f>
         <v>16</v>
       </c>
-      <c r="L19" s="71"/>
-      <c r="M19" s="72">
+      <c r="L19" s="75"/>
+      <c r="M19" s="76">
         <f>SUM(M1:M18)</f>
         <v>30</v>
       </c>
     </row>
     <row r="20" ht="21" spans="1:6">
-      <c r="A20" s="32">
+      <c r="A20" s="36">
         <v>19</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="38">
-        <v>1</v>
-      </c>
-      <c r="F20" s="35"/>
+      <c r="D20" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="42">
+        <v>1</v>
+      </c>
+      <c r="F20" s="39"/>
     </row>
     <row r="21" ht="21" spans="1:6">
-      <c r="A21" s="32">
+      <c r="A21" s="36">
         <v>20</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="41">
-        <v>1</v>
-      </c>
-      <c r="F21" s="35"/>
+      <c r="D21" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="45">
+        <v>1</v>
+      </c>
+      <c r="F21" s="39"/>
     </row>
     <row r="22" ht="21" spans="1:6">
-      <c r="A22" s="32">
+      <c r="A22" s="36">
         <v>21</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="41">
-        <v>1</v>
-      </c>
-      <c r="F22" s="35"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="45">
+        <v>1</v>
+      </c>
+      <c r="F22" s="39"/>
     </row>
     <row r="23" ht="21" spans="1:6">
-      <c r="A23" s="32">
+      <c r="A23" s="36">
         <v>22</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="41">
-        <v>1</v>
-      </c>
-      <c r="F23" s="35"/>
+      <c r="D23" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="45">
+        <v>1</v>
+      </c>
+      <c r="F23" s="39"/>
     </row>
     <row r="24" ht="21" spans="1:6">
-      <c r="A24" s="32">
+      <c r="A24" s="36">
         <v>23</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="38">
+      <c r="D24" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="42">
         <v>6</v>
       </c>
-      <c r="F24" s="35"/>
+      <c r="F24" s="39"/>
     </row>
     <row r="25" ht="21" spans="1:6">
-      <c r="A25" s="32">
+      <c r="A25" s="36">
         <v>24</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="54" t="s">
         <v>303</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="41" t="s">
         <v>304</v>
       </c>
-      <c r="D25" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="38">
-        <v>1</v>
-      </c>
-      <c r="F25" s="35"/>
+      <c r="D25" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="42">
+        <v>1</v>
+      </c>
+      <c r="F25" s="39"/>
     </row>
     <row r="26" ht="21" spans="1:8">
-      <c r="A26" s="32">
+      <c r="A26" s="36">
         <v>25</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="41" t="s">
         <v>305</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="41" t="s">
         <v>306</v>
       </c>
-      <c r="D26" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="55">
-        <v>1</v>
-      </c>
-      <c r="F26" s="35"/>
-      <c r="H26" s="56"/>
+      <c r="D26" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="59">
+        <v>1</v>
+      </c>
+      <c r="F26" s="39"/>
+      <c r="H26" s="60"/>
     </row>
     <row r="27" ht="42" spans="1:6">
-      <c r="A27" s="32">
+      <c r="A27" s="36">
         <v>26</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="38">
+      <c r="D27" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="42">
         <v>60</v>
       </c>
-      <c r="F27" s="35"/>
+      <c r="F27" s="39"/>
     </row>
     <row r="28" ht="21" spans="1:6">
-      <c r="A28" s="32">
+      <c r="A28" s="36">
         <v>27</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="43"/>
-      <c r="D28" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="38">
+      <c r="C28" s="47"/>
+      <c r="D28" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="42">
         <v>4</v>
       </c>
-      <c r="F28" s="35"/>
+      <c r="F28" s="39"/>
     </row>
     <row r="29" ht="21" spans="1:6">
-      <c r="A29" s="32">
+      <c r="A29" s="36">
         <v>28</v>
       </c>
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="38">
+      <c r="D29" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="42">
         <v>5</v>
       </c>
-      <c r="F29" s="35"/>
+      <c r="F29" s="39"/>
     </row>
     <row r="30" ht="21" spans="1:6">
-      <c r="A30" s="32">
+      <c r="A30" s="36">
         <v>29</v>
       </c>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="38">
+      <c r="D30" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="42">
         <v>30</v>
       </c>
-      <c r="F30" s="35"/>
+      <c r="F30" s="39"/>
     </row>
     <row r="31" ht="21" spans="1:6">
-      <c r="A31" s="32">
+      <c r="A31" s="36">
         <v>30</v>
       </c>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="55">
+      <c r="C31" s="41"/>
+      <c r="D31" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="59">
         <v>10</v>
       </c>
-      <c r="F31" s="35"/>
+      <c r="F31" s="39"/>
     </row>
     <row r="32" ht="21" spans="1:6">
-      <c r="A32" s="32">
+      <c r="A32" s="36">
         <v>31</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="D32" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="58">
+      <c r="D32" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="62">
         <v>3</v>
       </c>
-      <c r="F32" s="35"/>
+      <c r="F32" s="39"/>
     </row>
     <row r="33" ht="21" spans="1:6">
-      <c r="A33" s="32">
+      <c r="A33" s="36">
         <v>32</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="41" t="s">
         <v>307</v>
       </c>
-      <c r="D33" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="38">
+      <c r="D33" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="42">
         <v>9</v>
       </c>
-      <c r="F33" s="35"/>
+      <c r="F33" s="39"/>
     </row>
     <row r="34" ht="21" spans="1:6">
-      <c r="A34" s="32">
+      <c r="A34" s="36">
         <v>33</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="39" t="s">
         <v>262</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="D34" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="38">
+      <c r="D34" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="42">
         <v>2</v>
       </c>
-      <c r="F34" s="35"/>
+      <c r="F34" s="39"/>
     </row>
     <row r="35" ht="21" spans="1:6">
-      <c r="A35" s="32">
+      <c r="A35" s="36">
         <v>34</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="46" t="s">
         <v>308</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="32">
+      <c r="D35" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="36">
         <v>6</v>
       </c>
-      <c r="F35" s="35"/>
+      <c r="F35" s="39"/>
     </row>
     <row r="36" ht="21" spans="1:6">
-      <c r="A36" s="32">
+      <c r="A36" s="36">
         <v>35</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="46" t="s">
         <v>309</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="32">
-        <v>1</v>
-      </c>
-      <c r="F36" s="35"/>
+      <c r="D36" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="36">
+        <v>1</v>
+      </c>
+      <c r="F36" s="39"/>
     </row>
     <row r="37" ht="21" spans="1:6">
-      <c r="A37" s="32">
+      <c r="A37" s="36">
         <v>36</v>
       </c>
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="41">
+      <c r="D37" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="45">
         <v>2</v>
       </c>
-      <c r="F37" s="35"/>
+      <c r="F37" s="39"/>
     </row>
     <row r="38" ht="21" spans="1:6">
-      <c r="A38" s="32">
+      <c r="A38" s="36">
         <v>37</v>
       </c>
-      <c r="B38" s="60" t="s">
+      <c r="B38" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="61" t="s">
+      <c r="C38" s="65" t="s">
         <v>310</v>
       </c>
-      <c r="D38" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="63">
-        <v>1</v>
-      </c>
-      <c r="F38" s="61"/>
+      <c r="D38" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="67">
+        <v>1</v>
+      </c>
+      <c r="F38" s="65"/>
     </row>
     <row r="39" ht="21" spans="1:6">
-      <c r="A39" s="32">
+      <c r="A39" s="36">
         <v>38</v>
       </c>
-      <c r="B39" s="61" t="s">
+      <c r="B39" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="61" t="s">
+      <c r="C39" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="D39" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="63">
+      <c r="D39" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="67">
         <v>4</v>
       </c>
-      <c r="F39" s="61"/>
+      <c r="F39" s="65"/>
     </row>
     <row r="40" ht="21" spans="1:6">
-      <c r="A40" s="32">
+      <c r="A40" s="36">
         <v>39</v>
       </c>
-      <c r="B40" s="61" t="s">
+      <c r="B40" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="61" t="s">
+      <c r="C40" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="63">
+      <c r="D40" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="67">
         <v>6</v>
       </c>
-      <c r="F40" s="61"/>
+      <c r="F40" s="65"/>
     </row>
     <row r="41" ht="21" spans="1:6">
-      <c r="A41" s="32">
+      <c r="A41" s="36">
         <v>40</v>
       </c>
-      <c r="B41" s="61" t="s">
+      <c r="B41" s="65" t="s">
         <v>262</v>
       </c>
-      <c r="C41" s="61" t="s">
+      <c r="C41" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="61"/>
-      <c r="E41" s="64">
-        <v>1</v>
-      </c>
-      <c r="F41" s="61"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="68">
+        <v>1</v>
+      </c>
+      <c r="F41" s="65"/>
     </row>
     <row r="42" ht="21" spans="1:6">
-      <c r="A42" s="32">
+      <c r="A42" s="36">
         <v>41</v>
       </c>
-      <c r="B42" s="61" t="s">
+      <c r="B42" s="65" t="s">
         <v>262</v>
       </c>
-      <c r="C42" s="61" t="s">
+      <c r="C42" s="65" t="s">
         <v>296</v>
       </c>
-      <c r="D42" s="61"/>
-      <c r="E42" s="64">
+      <c r="D42" s="65"/>
+      <c r="E42" s="68">
         <v>2</v>
       </c>
-      <c r="F42" s="61"/>
+      <c r="F42" s="65"/>
     </row>
     <row r="43" ht="21" spans="1:6">
-      <c r="A43" s="32">
+      <c r="A43" s="36">
         <v>42</v>
       </c>
-      <c r="B43" s="61" t="s">
+      <c r="B43" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="61" t="s">
+      <c r="C43" s="65" t="s">
         <v>300</v>
       </c>
-      <c r="D43" s="61"/>
-      <c r="E43" s="64">
-        <v>1</v>
-      </c>
-      <c r="F43" s="61"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="68">
+        <v>1</v>
+      </c>
+      <c r="F43" s="65"/>
     </row>
     <row r="44" ht="21" spans="1:6">
-      <c r="A44" s="32">
+      <c r="A44" s="36">
         <v>43</v>
       </c>
-      <c r="B44" s="61" t="s">
+      <c r="B44" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="C44" s="61" t="s">
+      <c r="C44" s="65" t="s">
         <v>311</v>
       </c>
-      <c r="D44" s="61"/>
-      <c r="E44" s="64">
-        <v>1</v>
-      </c>
-      <c r="F44" s="61"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="68">
+        <v>1</v>
+      </c>
+      <c r="F44" s="65"/>
     </row>
     <row r="45" ht="21" spans="1:6">
-      <c r="A45" s="32">
+      <c r="A45" s="36">
         <v>44</v>
       </c>
-      <c r="B45" s="61" t="s">
+      <c r="B45" s="65" t="s">
         <v>312</v>
       </c>
-      <c r="C45" s="61" t="s">
+      <c r="C45" s="65" t="s">
         <v>313</v>
       </c>
-      <c r="D45" s="61"/>
-      <c r="E45" s="64">
-        <v>1</v>
-      </c>
-      <c r="F45" s="61"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="68">
+        <v>1</v>
+      </c>
+      <c r="F45" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8065,292 +8106,292 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.8611111111111" style="21" customWidth="1"/>
-    <col min="2" max="2" width="13.5740740740741" style="21" customWidth="1"/>
-    <col min="3" max="3" width="15.1388888888889" style="22" customWidth="1"/>
-    <col min="4" max="4" width="26.5740740740741" style="22" customWidth="1"/>
-    <col min="5" max="6" width="15.1388888888889" style="22" customWidth="1"/>
-    <col min="7" max="7" width="9.13888888888889" style="21"/>
-    <col min="8" max="8" width="14.287037037037" style="21" customWidth="1"/>
-    <col min="9" max="9" width="9.13888888888889" style="21"/>
-    <col min="10" max="10" width="21.712962962963" style="21" customWidth="1"/>
-    <col min="11" max="11" width="24.287037037037" style="21" customWidth="1"/>
-    <col min="12" max="12" width="16.287037037037" style="23" customWidth="1"/>
-    <col min="13" max="13" width="41.8611111111111" style="21" customWidth="1"/>
-    <col min="14" max="14" width="23" style="21" customWidth="1"/>
-    <col min="15" max="16384" width="9.13888888888889" style="21"/>
+    <col min="1" max="1" width="21.8611111111111" style="25" customWidth="1"/>
+    <col min="2" max="2" width="13.5740740740741" style="25" customWidth="1"/>
+    <col min="3" max="3" width="15.1388888888889" style="26" customWidth="1"/>
+    <col min="4" max="4" width="26.5740740740741" style="26" customWidth="1"/>
+    <col min="5" max="6" width="15.1388888888889" style="26" customWidth="1"/>
+    <col min="7" max="7" width="9.13888888888889" style="25"/>
+    <col min="8" max="8" width="14.287037037037" style="25" customWidth="1"/>
+    <col min="9" max="9" width="9.13888888888889" style="25"/>
+    <col min="10" max="10" width="21.712962962963" style="25" customWidth="1"/>
+    <col min="11" max="11" width="24.287037037037" style="25" customWidth="1"/>
+    <col min="12" max="12" width="16.287037037037" style="27" customWidth="1"/>
+    <col min="13" max="13" width="41.8611111111111" style="25" customWidth="1"/>
+    <col min="14" max="14" width="23" style="25" customWidth="1"/>
+    <col min="15" max="16384" width="9.13888888888889" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="30" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="31" t="s">
         <v>317</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="31" t="s">
         <v>318</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="25" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="31">
         <v>8000</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="31">
         <v>5001</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="26">
         <v>5002</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="25" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="32" t="s">
         <v>324</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="30" t="s">
         <v>326</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="31">
         <v>8001</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="31">
         <v>5001</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="26">
         <v>5002</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="25" t="s">
         <v>327</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="27" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="30" t="s">
         <v>330</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27">
+      <c r="D4" s="31"/>
+      <c r="E4" s="31">
         <v>5001</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="26">
         <v>5002</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="25" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="32" t="s">
         <v>332</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="31">
         <v>8002</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="31">
         <v>5001</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="26">
         <v>5002</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="25" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27">
+      <c r="D6" s="31"/>
+      <c r="E6" s="31">
         <v>5001</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="26">
         <v>5002</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="25" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="32" t="s">
         <v>337</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="31">
         <v>8004</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="31">
         <v>5001</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="26">
         <v>5002</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="25" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="28"/>
-      <c r="B8" s="29" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27">
+      <c r="D8" s="31"/>
+      <c r="E8" s="31">
         <v>5001</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="26">
         <v>5002</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="25" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="32" t="s">
         <v>342</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="30" t="s">
         <v>343</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="31">
         <v>8005</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="31">
         <v>5001</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="26">
         <v>5002</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="25" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="28"/>
-      <c r="B10" s="29" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="30" t="s">
         <v>345</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27">
+      <c r="D10" s="31"/>
+      <c r="E10" s="31">
         <v>5001</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="26">
         <v>5002</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="25" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="32" t="s">
         <v>347</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="30" t="s">
         <v>348</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="31">
         <v>8006</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="31">
         <v>5001</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="26">
         <v>5002</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="25" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="28"/>
-      <c r="B12" s="29" t="s">
+      <c r="A12" s="32"/>
+      <c r="B12" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="30" t="s">
         <v>350</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27">
+      <c r="D12" s="31"/>
+      <c r="E12" s="31">
         <v>5001</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="26">
         <v>5002</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="25" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="25" t="s">
         <v>352</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="30" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="25" t="s">
         <v>354</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="30" t="s">
         <v>355</v>
       </c>
     </row>
@@ -8372,10 +8413,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M87"/>
+  <dimension ref="A1:M91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -8412,19 +8453,19 @@
       <c r="G1" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="M1" s="20"/>
+      <c r="M1" s="24"/>
     </row>
     <row r="2" ht="16.8" spans="1:13">
       <c r="A2" s="1"/>
@@ -8438,15 +8479,15 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="5"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="18" t="s">
+      <c r="I2" s="19"/>
+      <c r="J2" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="20"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="24"/>
     </row>
     <row r="3" ht="16.8" spans="1:13">
       <c r="A3" s="1"/>
@@ -8460,15 +8501,15 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="5"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="18" t="s">
+      <c r="I3" s="19"/>
+      <c r="J3" s="22" t="s">
         <v>369</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="20"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="24"/>
     </row>
     <row r="4" ht="16.8" spans="1:12">
       <c r="A4" s="1"/>
@@ -8484,10 +8525,10 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="5"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="18"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="22"/>
     </row>
     <row r="5" ht="16.8" spans="1:12">
       <c r="A5" s="1"/>
@@ -8503,10 +8544,10 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="5"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" ht="16.8" spans="1:12">
       <c r="A6" s="1"/>
@@ -8522,10 +8563,10 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="5"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="18"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="22"/>
     </row>
     <row r="7" ht="16.8" spans="1:12">
       <c r="A7" s="1"/>
@@ -8541,10 +8582,10 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="5"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="18"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="22"/>
     </row>
     <row r="8" ht="16.8" spans="1:12">
       <c r="A8" s="1"/>
@@ -8558,10 +8599,10 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="18"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="22"/>
     </row>
     <row r="9" ht="16.8" spans="1:12">
       <c r="A9" s="1"/>
@@ -8575,10 +8616,10 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="5"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="18"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="22"/>
     </row>
     <row r="10" ht="16.8" spans="1:12">
       <c r="A10" s="1"/>
@@ -8594,10 +8635,10 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="5"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="18"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="22"/>
     </row>
     <row r="11" ht="16.8" spans="1:12">
       <c r="A11" s="1"/>
@@ -8613,10 +8654,10 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="5"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="18"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="22"/>
     </row>
     <row r="12" ht="16.8" spans="1:12">
       <c r="A12" s="1"/>
@@ -8628,10 +8669,10 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="5"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="18"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="22"/>
     </row>
     <row r="13" ht="16.8" spans="1:12">
       <c r="A13" s="1"/>
@@ -8643,10 +8684,10 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="5"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
     </row>
     <row r="14" ht="16.8" spans="1:12">
       <c r="A14" s="1"/>
@@ -8658,10 +8699,10 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="5"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
     </row>
     <row r="15" ht="16.8" spans="1:12">
       <c r="A15" s="1"/>
@@ -8673,10 +8714,10 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="5"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
     </row>
     <row r="16" ht="16.8" spans="1:12">
       <c r="A16" s="1"/>
@@ -8690,10 +8731,10 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="5"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
     </row>
     <row r="17" ht="16.8" spans="1:12">
       <c r="A17" s="1"/>
@@ -8703,10 +8744,10 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="5"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
     </row>
     <row r="18" ht="16.8" spans="1:12">
       <c r="A18" s="1"/>
@@ -8724,10 +8765,10 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="5"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="18"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="22"/>
     </row>
     <row r="19" ht="16.8" spans="1:12">
       <c r="A19" s="1"/>
@@ -8743,10 +8784,10 @@
         <v>402</v>
       </c>
       <c r="G19" s="5"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="18"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="22"/>
     </row>
     <row r="20" ht="16.8" spans="1:12">
       <c r="A20" s="1"/>
@@ -8762,10 +8803,10 @@
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="5"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="18"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="22"/>
     </row>
     <row r="21" ht="16.8" spans="1:12">
       <c r="A21" s="1"/>
@@ -8781,10 +8822,10 @@
         <v>402</v>
       </c>
       <c r="G21" s="5"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="18"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="22"/>
     </row>
     <row r="22" ht="43" customHeight="1" spans="1:12">
       <c r="A22" s="1"/>
@@ -8802,10 +8843,10 @@
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="5"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="18"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="22"/>
     </row>
     <row r="23" ht="16.8" spans="1:12">
       <c r="A23" s="1"/>
@@ -8821,10 +8862,10 @@
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="5"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="18"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="22"/>
     </row>
     <row r="24" ht="16.8" spans="1:12">
       <c r="A24" s="4"/>
@@ -8834,10 +8875,10 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="5"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="18"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="22"/>
     </row>
     <row r="25" ht="16.8" spans="1:12">
       <c r="A25" s="4"/>
@@ -8853,29 +8894,31 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="5"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="18"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="22"/>
     </row>
     <row r="26" ht="16.8" spans="1:12">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="C26" s="6"/>
+      <c r="C26" s="6" t="s">
+        <v>413</v>
+      </c>
       <c r="D26" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="5"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="18"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="22"/>
     </row>
     <row r="27" ht="16.8" spans="1:12">
       <c r="A27" s="4"/>
@@ -8885,666 +8928,738 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="5"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="18"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="22"/>
     </row>
     <row r="28" ht="16.8" spans="1:12">
-      <c r="A28" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="B28" s="10" t="s">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="5"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="22"/>
+    </row>
+    <row r="29" ht="16.8" spans="1:12">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="5"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="22"/>
+    </row>
+    <row r="30" ht="16.8" spans="1:12">
+      <c r="A30" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C30" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D30" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="5"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="18"/>
-    </row>
-    <row r="29" ht="16.8" spans="1:12">
-      <c r="A29" s="9"/>
-      <c r="B29" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="5"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="18"/>
-    </row>
-    <row r="30" ht="16.8" spans="1:12">
-      <c r="A30" s="9"/>
-      <c r="B30" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="5"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="18"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="22"/>
     </row>
     <row r="31" ht="16.8" spans="1:12">
       <c r="A31" s="9"/>
       <c r="B31" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="C31" s="13">
-        <v>580</v>
+        <v>421</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>422</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>373</v>
+        <v>423</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="5"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="18"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="22"/>
     </row>
     <row r="32" ht="16.8" spans="1:12">
       <c r="A32" s="9"/>
-      <c r="B32" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="D32" s="11"/>
+      <c r="B32" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="G32" s="5"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="22"/>
     </row>
     <row r="33" ht="16.8" spans="1:12">
       <c r="A33" s="9"/>
       <c r="B33" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>420</v>
+        <v>371</v>
+      </c>
+      <c r="C33" s="13">
+        <v>580</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>421</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>422</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="E33" s="12"/>
       <c r="F33" s="12"/>
       <c r="G33" s="5"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="22"/>
     </row>
     <row r="34" ht="16.8" spans="1:12">
       <c r="A34" s="9"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>422</v>
-      </c>
+      <c r="B34" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12"/>
       <c r="F34" s="12"/>
       <c r="G34" s="5"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
     </row>
     <row r="35" ht="16.8" spans="1:12">
       <c r="A35" s="9"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
+      <c r="B35" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>427</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="5"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
     </row>
     <row r="36" ht="16.8" spans="1:12">
       <c r="A36" s="9"/>
       <c r="B36" s="12"/>
       <c r="C36" s="13"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
+      <c r="D36" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>427</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="5"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
     </row>
     <row r="37" ht="16.8" spans="1:12">
       <c r="A37" s="9"/>
-      <c r="B37" s="12" t="s">
-        <v>403</v>
-      </c>
+      <c r="B37" s="12"/>
       <c r="C37" s="13"/>
-      <c r="D37" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>422</v>
-      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
       <c r="F37" s="12"/>
       <c r="G37" s="5"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="18"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
     </row>
     <row r="38" ht="16.8" spans="1:12">
       <c r="A38" s="9"/>
       <c r="B38" s="12"/>
       <c r="C38" s="13"/>
-      <c r="D38" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>422</v>
-      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
       <c r="F38" s="12"/>
       <c r="G38" s="5"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="18"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
     </row>
     <row r="39" ht="16.8" spans="1:12">
       <c r="A39" s="9"/>
       <c r="B39" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>426</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="C39" s="13"/>
       <c r="D39" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="E39" s="12" t="s">
         <v>427</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>428</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="5"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="18"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="22"/>
     </row>
     <row r="40" ht="16.8" spans="1:12">
       <c r="A40" s="9"/>
-      <c r="B40" s="12" t="s">
-        <v>403</v>
-      </c>
+      <c r="B40" s="12"/>
       <c r="C40" s="13"/>
       <c r="D40" s="12" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="5"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="18"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="22"/>
     </row>
     <row r="41" ht="16.8" spans="1:12">
       <c r="A41" s="9"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="13"/>
+      <c r="B41" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="D41" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="E41" s="12"/>
+        <v>432</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>433</v>
+      </c>
       <c r="F41" s="12"/>
       <c r="G41" s="5"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="18"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="22"/>
     </row>
     <row r="42" ht="16.8" spans="1:12">
-      <c r="A42" s="14"/>
+      <c r="A42" s="9"/>
       <c r="B42" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="D42" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="E42" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
+      <c r="F42" s="12"/>
       <c r="G42" s="5"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="18"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="22"/>
     </row>
     <row r="43" ht="16.8" spans="1:12">
-      <c r="A43" s="14"/>
-      <c r="B43" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="C43" s="13" t="s">
+      <c r="A43" s="9"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
       <c r="G43" s="5"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="18"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="22"/>
     </row>
     <row r="44" ht="16.8" spans="1:12">
-      <c r="A44" t="s">
+      <c r="A44" s="14"/>
+      <c r="B44" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" s="14" t="s">
         <v>438</v>
       </c>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="18"/>
-    </row>
-    <row r="45" ht="16.8" spans="2:12">
-      <c r="B45" t="s">
+      <c r="E44" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="F44" s="14"/>
+      <c r="G44" s="5"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="22"/>
+    </row>
+    <row r="45" ht="16.8" spans="1:12">
+      <c r="A45" s="14"/>
+      <c r="B45" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="F45" s="14"/>
+      <c r="G45" s="5"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="22"/>
+    </row>
+    <row r="46" ht="16.8" spans="1:12">
+      <c r="A46" s="15"/>
+      <c r="B46" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="F46" s="15"/>
+      <c r="G46" s="18"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="22"/>
+    </row>
+    <row r="47" ht="16.8" spans="1:12">
+      <c r="A47" s="15"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="18"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="22"/>
+    </row>
+    <row r="48" ht="16.8" spans="1:12">
+      <c r="A48" t="s">
+        <v>447</v>
+      </c>
+      <c r="B48" t="s">
+        <v>448</v>
+      </c>
+      <c r="C48" t="s">
+        <v>449</v>
+      </c>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="22"/>
+    </row>
+    <row r="49" ht="16.8" spans="2:12">
+      <c r="B49" t="s">
         <v>332</v>
       </c>
-      <c r="C45" t="s">
-        <v>439</v>
-      </c>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="18"/>
-    </row>
-    <row r="46" ht="16.8" spans="2:12">
-      <c r="B46" t="s">
+      <c r="C49" t="s">
+        <v>450</v>
+      </c>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="22"/>
+    </row>
+    <row r="50" ht="16.8" spans="2:12">
+      <c r="B50" t="s">
         <v>337</v>
       </c>
-      <c r="C46" t="s">
-        <v>440</v>
-      </c>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="18"/>
-    </row>
-    <row r="47" ht="16.8" spans="2:12">
-      <c r="B47" t="s">
+      <c r="C50" t="s">
+        <v>451</v>
+      </c>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="22"/>
+    </row>
+    <row r="51" ht="16.8" spans="2:12">
+      <c r="B51" t="s">
         <v>342</v>
       </c>
-      <c r="C47" t="s">
-        <v>441</v>
-      </c>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="18"/>
-    </row>
-    <row r="48" ht="16.8" spans="2:12">
-      <c r="B48" t="s">
+      <c r="C51" t="s">
+        <v>452</v>
+      </c>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="22"/>
+    </row>
+    <row r="52" ht="16.8" spans="2:12">
+      <c r="B52" t="s">
         <v>347</v>
       </c>
-      <c r="C48" t="s">
-        <v>442</v>
-      </c>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="18"/>
-    </row>
-    <row r="49" ht="16.8" spans="9:12">
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
-    </row>
-    <row r="50" ht="16.8" spans="9:12">
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
-    </row>
-    <row r="51" ht="16.8" spans="3:12">
-      <c r="C51" s="15" t="s">
-        <v>443</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>444</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>445</v>
-      </c>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-    </row>
-    <row r="52" ht="16.8" spans="3:12">
-      <c r="C52" s="15"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="17"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
-    </row>
-    <row r="53" ht="16.8" spans="3:12">
-      <c r="C53" s="15"/>
-      <c r="D53" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="E53" s="19" t="s">
-        <v>447</v>
-      </c>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
-    </row>
-    <row r="54" ht="16.8" spans="3:12">
-      <c r="C54" s="15"/>
-      <c r="D54" s="18" t="s">
-        <v>448</v>
-      </c>
-      <c r="E54" s="19" t="s">
-        <v>449</v>
-      </c>
-      <c r="I54" s="18"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="18"/>
+      <c r="C52" t="s">
+        <v>453</v>
+      </c>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="22"/>
+    </row>
+    <row r="53" ht="16.8" spans="9:12">
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+    </row>
+    <row r="54" ht="16.8" spans="9:12">
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
     </row>
     <row r="55" ht="16.8" spans="3:12">
-      <c r="C55" s="15"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="18"/>
+      <c r="C55" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>455</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
     </row>
     <row r="56" ht="16.8" spans="3:12">
-      <c r="C56" s="15"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="19"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="18"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="21"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
     </row>
     <row r="57" ht="16.8" spans="3:12">
-      <c r="C57" s="15"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="19"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="18"/>
-    </row>
-    <row r="58" ht="16.8" spans="9:12">
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="18"/>
-    </row>
-    <row r="59" ht="16.8" spans="9:12">
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="18"/>
-    </row>
-    <row r="60" ht="16.8" spans="9:12">
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="18"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="22" t="s">
+        <v>457</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+    </row>
+    <row r="58" ht="16.8" spans="3:12">
+      <c r="C58" s="19"/>
+      <c r="D58" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="I58" s="22"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="22"/>
+    </row>
+    <row r="59" ht="16.8" spans="3:12">
+      <c r="C59" s="19"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="22"/>
+    </row>
+    <row r="60" ht="16.8" spans="3:12">
+      <c r="C60" s="19"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="23"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="22"/>
     </row>
     <row r="61" ht="16.8" spans="3:12">
-      <c r="C61" s="15" t="s">
-        <v>451</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="E61" s="17" t="s">
-        <v>453</v>
-      </c>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="18"/>
-    </row>
-    <row r="62" ht="16.8" spans="3:12">
-      <c r="C62" s="15"/>
-      <c r="D62" s="18" t="s">
-        <v>454</v>
-      </c>
-      <c r="E62" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="18"/>
-    </row>
-    <row r="63" ht="16.8" spans="3:12">
-      <c r="C63" s="15"/>
-      <c r="D63" s="18" t="s">
-        <v>456</v>
-      </c>
-      <c r="E63" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="18"/>
-    </row>
-    <row r="64" ht="16.8" spans="3:12">
-      <c r="C64" s="15"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="19"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="19"/>
-      <c r="L64" s="18"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="23"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="22"/>
+    </row>
+    <row r="62" ht="16.8" spans="9:12">
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="22"/>
+    </row>
+    <row r="63" ht="16.8" spans="9:12">
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="23"/>
+      <c r="L63" s="22"/>
+    </row>
+    <row r="64" ht="16.8" spans="9:12">
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="22"/>
     </row>
     <row r="65" ht="16.8" spans="3:12">
-      <c r="C65" s="15"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="19"/>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="19"/>
-      <c r="L65" s="18"/>
+      <c r="C65" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="22"/>
     </row>
     <row r="66" ht="16.8" spans="3:12">
-      <c r="C66" s="15"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="19"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-      <c r="L66" s="18"/>
-    </row>
-    <row r="67" ht="16.8" spans="9:12">
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="18"/>
-      <c r="L67" s="18"/>
-    </row>
-    <row r="68" ht="16.8" spans="9:12">
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="18"/>
-      <c r="L68" s="18"/>
-    </row>
-    <row r="69" ht="16.8" spans="9:12">
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="18"/>
-      <c r="L69" s="18"/>
-    </row>
-    <row r="70" ht="16.8" spans="9:12">
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="18"/>
-      <c r="L70" s="18"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="22"/>
+    </row>
+    <row r="67" ht="16.8" spans="3:12">
+      <c r="C67" s="19"/>
+      <c r="D67" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>468</v>
+      </c>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="23"/>
+      <c r="L67" s="22"/>
+    </row>
+    <row r="68" ht="16.8" spans="3:12">
+      <c r="C68" s="19"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="23"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="23"/>
+      <c r="L68" s="22"/>
+    </row>
+    <row r="69" ht="16.8" spans="3:12">
+      <c r="C69" s="19"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="23"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="23"/>
+      <c r="L69" s="22"/>
+    </row>
+    <row r="70" ht="16.8" spans="3:12">
+      <c r="C70" s="19"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="23"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="22"/>
     </row>
     <row r="71" ht="16.8" spans="9:12">
-      <c r="I71" s="18"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="17"/>
-      <c r="L71" s="18"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="22"/>
     </row>
     <row r="72" ht="16.8" spans="9:12">
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="19"/>
-      <c r="L72" s="18"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22"/>
     </row>
     <row r="73" ht="16.8" spans="9:12">
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="19"/>
-      <c r="L73" s="18"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="22"/>
     </row>
     <row r="74" ht="16.8" spans="9:12">
-      <c r="I74" s="18"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="19"/>
-      <c r="L74" s="18"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="22"/>
     </row>
     <row r="75" ht="16.8" spans="9:12">
-      <c r="I75" s="18"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="19"/>
-      <c r="L75" s="18"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="20"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="22"/>
     </row>
     <row r="76" ht="16.8" spans="9:12">
-      <c r="I76" s="18"/>
-      <c r="J76" s="18"/>
-      <c r="K76" s="19"/>
-      <c r="L76" s="18"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="23"/>
+      <c r="L76" s="22"/>
     </row>
     <row r="77" ht="16.8" spans="9:12">
-      <c r="I77" s="18"/>
-      <c r="J77" s="18"/>
-      <c r="K77" s="19"/>
-      <c r="L77" s="18"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="23"/>
+      <c r="L77" s="22"/>
     </row>
     <row r="78" ht="16.8" spans="9:12">
-      <c r="I78" s="18"/>
-      <c r="J78" s="18"/>
-      <c r="K78" s="19"/>
-      <c r="L78" s="18"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="23"/>
+      <c r="L78" s="22"/>
     </row>
     <row r="79" ht="16.8" spans="9:12">
-      <c r="I79" s="18"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="19"/>
-      <c r="L79" s="18"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="23"/>
+      <c r="L79" s="22"/>
     </row>
     <row r="80" ht="16.8" spans="9:12">
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="19"/>
-      <c r="L80" s="18"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="23"/>
+      <c r="L80" s="22"/>
     </row>
     <row r="81" ht="16.8" spans="9:12">
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="19"/>
-      <c r="L81" s="18"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="23"/>
+      <c r="L81" s="22"/>
     </row>
     <row r="82" ht="16.8" spans="9:12">
-      <c r="I82" s="18"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="19"/>
-      <c r="L82" s="18"/>
+      <c r="I82" s="22"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="23"/>
+      <c r="L82" s="22"/>
     </row>
     <row r="83" ht="16.8" spans="9:12">
-      <c r="I83" s="18"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="18"/>
-      <c r="L83" s="18"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="23"/>
+      <c r="L83" s="22"/>
     </row>
     <row r="84" ht="16.8" spans="9:12">
-      <c r="I84" s="18"/>
-      <c r="J84" s="18"/>
-      <c r="K84" s="18"/>
-      <c r="L84" s="18"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="22"/>
+      <c r="K84" s="23"/>
+      <c r="L84" s="22"/>
     </row>
     <row r="85" ht="16.8" spans="9:12">
-      <c r="I85" s="18"/>
-      <c r="J85" s="18"/>
-      <c r="K85" s="18"/>
-      <c r="L85" s="18"/>
+      <c r="I85" s="22"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="22"/>
     </row>
     <row r="86" ht="16.8" spans="9:12">
-      <c r="I86" s="18"/>
-      <c r="J86" s="18"/>
-      <c r="K86" s="18"/>
-      <c r="L86" s="18"/>
+      <c r="I86" s="22"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="23"/>
+      <c r="L86" s="22"/>
     </row>
     <row r="87" ht="16.8" spans="9:12">
-      <c r="I87" s="18"/>
-      <c r="J87" s="18"/>
-      <c r="K87" s="18"/>
-      <c r="L87" s="18"/>
+      <c r="I87" s="22"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="22"/>
+      <c r="L87" s="22"/>
+    </row>
+    <row r="88" ht="16.8" spans="9:12">
+      <c r="I88" s="22"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="22"/>
+      <c r="L88" s="22"/>
+    </row>
+    <row r="89" ht="16.8" spans="9:12">
+      <c r="I89" s="22"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="22"/>
+      <c r="L89" s="22"/>
+    </row>
+    <row r="90" ht="16.8" spans="9:12">
+      <c r="I90" s="22"/>
+      <c r="J90" s="22"/>
+      <c r="K90" s="22"/>
+      <c r="L90" s="22"/>
+    </row>
+    <row r="91" ht="16.8" spans="9:12">
+      <c r="I91" s="22"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="22"/>
+      <c r="L91" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A23"/>
-    <mergeCell ref="A28:A41"/>
-    <mergeCell ref="G1:G42"/>
+    <mergeCell ref="A30:A43"/>
+    <mergeCell ref="G1:G44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9565,502 +9680,502 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
